--- a/Configuration/Config_AR.xlsx
+++ b/Configuration/Config_AR.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="441" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="361">
   <si>
     <t>Name</t>
   </si>
@@ -698,6 +698,37 @@
   </si>
   <si>
     <t>https://senyone.sharepoint.com/:f:/s/ServicesRH/IgAbdU_t7HW4So2YznO6G_5wAUB7d_upIMseXAUSlG6b6oo?e=ppSRsv</t>
+  </si>
+  <si>
+    <t>MailValidatorBody</t>
+  </si>
+  <si>
+    <t>"Bonjour," &amp; vbCrLf &amp; vbCrLf &amp;
+"Certaines informations sont manquantes ou non fiables pour la facture suivante :" &amp; vbCrLf &amp; vbCrLf &amp;
+"Veuillez compléter les champs suivants : " &amp; vbCrLf &amp; vbCrLf &amp;</t>
+  </si>
+  <si>
+    <t>MailValidatorSubject</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Complément d'informations pour la facture </t>
+  </si>
+  <si>
+    <t>MailValidatorSignature</t>
+  </si>
+  <si>
+    <t>"Merci de répondre en respectant exactement ce format." &amp; vbCrLf &amp; vbCrLf &amp;
+"Cordialement," &amp; vbCrLf &amp;
+"Service Automatisation UiPath"</t>
+  </si>
+  <si>
+    <t>MailValidatorAdress</t>
+  </si>
+  <si>
+    <t>fallou@senyone.sn</t>
+  </si>
+  <si>
+    <t>MailValidatorAdressCC</t>
   </si>
   <si>
     <t>Asset_Workday_UI_HomepageURL</t>
@@ -1360,6 +1391,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -1367,12 +1404,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1939,7 +1970,7 @@
     <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1950,7 +1981,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="84">
+  <cellXfs count="85">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2018,6 +2049,7 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2054,30 +2086,34 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2087,7 +2123,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2124,13 +2159,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2504,211 +2538,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="50.5428571428571" style="33" customWidth="1"/>
-    <col min="2" max="2" width="49.8190476190476" style="34" customWidth="1"/>
-    <col min="3" max="3" width="28.7238095238095" style="34" customWidth="1"/>
-    <col min="4" max="4" width="28.4571428571429" style="34" customWidth="1"/>
-    <col min="5" max="5" width="130.266666666667" style="59" customWidth="1"/>
+    <col min="1" max="1" width="50.5428571428571" style="34" customWidth="1"/>
+    <col min="2" max="2" width="49.8190476190476" style="35" customWidth="1"/>
+    <col min="3" max="3" width="28.7238095238095" style="35" customWidth="1"/>
+    <col min="4" max="4" width="28.4571428571429" style="35" customWidth="1"/>
+    <col min="5" max="5" width="130.266666666667" style="61" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="1" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="36" t="s">
+      <c r="E1" s="37" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="62" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="61"/>
-      <c r="C2" s="61"/>
-      <c r="D2" s="61"/>
-      <c r="E2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="64"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A3" s="42" t="s">
+      <c r="A3" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="43" t="s">
+      <c r="B3" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="63"/>
-      <c r="D3" s="63"/>
-      <c r="E3" s="64" t="s">
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="66" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A4" s="42" t="s">
+      <c r="A4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="63" t="s">
+      <c r="B4" s="65" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="63"/>
-      <c r="D4" s="63"/>
-      <c r="E4" s="64" t="s">
+      <c r="C4" s="65"/>
+      <c r="D4" s="65"/>
+      <c r="E4" s="66" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="65" t="s">
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="67" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="65" t="s">
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="67" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="66" t="s">
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="68" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="65" t="s">
+      <c r="C8" s="42"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="67" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="43" t="s">
+      <c r="B9" s="44" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="43"/>
-      <c r="D9" s="43"/>
-      <c r="E9" s="65" t="s">
+      <c r="C9" s="44"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="67" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="2:5">
-      <c r="B10" s="67"/>
-      <c r="C10" s="67"/>
-      <c r="D10" s="67"/>
-      <c r="E10" s="68"/>
+      <c r="B10" s="69"/>
+      <c r="C10" s="69"/>
+      <c r="D10" s="69"/>
+      <c r="E10" s="70"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="62" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="61"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="61"/>
-      <c r="E11" s="62"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="63"/>
+      <c r="E11" s="64"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="45" t="s">
+      <c r="B12" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="41" t="s">
+      <c r="C12" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="41"/>
-      <c r="E12" s="65" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="67" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="45" t="s">
+      <c r="B13" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="41" t="s">
+      <c r="C13" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="65" t="s">
+      <c r="D13" s="42"/>
+      <c r="E13" s="67" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="69" t="s">
+      <c r="B14" s="71" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="70"/>
-      <c r="D14" s="70"/>
-      <c r="E14" s="65" t="s">
+      <c r="C14" s="72"/>
+      <c r="D14" s="72"/>
+      <c r="E14" s="67" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="41" t="s">
+      <c r="C15" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="41"/>
-      <c r="E15" s="44"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="41" t="b">
+      <c r="B16" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="41"/>
-      <c r="D16" s="41"/>
-      <c r="E16" s="65" t="s">
+      <c r="C16" s="42"/>
+      <c r="D16" s="42"/>
+      <c r="E16" s="67" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2716,12 +2750,12 @@
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="41" t="s">
+      <c r="B17" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="65" t="s">
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="67" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2729,172 +2763,172 @@
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="41" t="s">
+      <c r="B18" s="42" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="65"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="67"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:5">
       <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="41" t="s">
+      <c r="B19" s="42" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="65"/>
+      <c r="C19" s="42"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="67"/>
     </row>
     <row r="20" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
       <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="65"/>
-    </row>
-    <row r="21" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A21" s="71"/>
-      <c r="B21" s="52"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="72"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="67"/>
+    </row>
+    <row r="21" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A21" s="73"/>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53"/>
+      <c r="D21" s="53"/>
+      <c r="E21" s="74"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A22" s="60" t="s">
+      <c r="A22" s="62" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
-      <c r="E22" s="62"/>
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="64"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A23" s="42"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="65"/>
-    </row>
-    <row r="24" s="58" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A24" s="71"/>
-      <c r="B24" s="52"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="72"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="55"/>
+      <c r="C23" s="55"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="67"/>
+    </row>
+    <row r="24" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A24" s="73"/>
+      <c r="B24" s="53"/>
+      <c r="C24" s="53"/>
+      <c r="D24" s="53"/>
+      <c r="E24" s="74"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="41" t="b">
+      <c r="B25" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="41" t="b">
+      <c r="C25" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="65" t="s">
+      <c r="D25" s="42"/>
+      <c r="E25" s="67" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="43" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="74" t="str">
+      <c r="B26" s="75" t="str">
         <f>IF(B9="English",LanguageSettings!$B2,IF(B9="Spanish",LanguageSettings!$D2,LanguageSettings!$C2))</f>
         <v>L’exécution du travail a rencontré une exception système, veuillez consulter le fichier journal et le rapport d’expédition</v>
       </c>
-      <c r="C26" s="74"/>
-      <c r="D26" s="74"/>
-      <c r="E26" s="64" t="s">
+      <c r="C26" s="75"/>
+      <c r="D26" s="75"/>
+      <c r="E26" s="66" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A27" s="75"/>
-      <c r="B27" s="67"/>
-      <c r="C27" s="67"/>
-      <c r="D27" s="67"/>
-      <c r="E27" s="68"/>
+      <c r="A27" s="76"/>
+      <c r="B27" s="69"/>
+      <c r="C27" s="69"/>
+      <c r="D27" s="69"/>
+      <c r="E27" s="70"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A28" s="60" t="s">
+      <c r="A28" s="62" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
-      <c r="E28" s="62"/>
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="64"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:5">
       <c r="A29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="42" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="65" t="s">
+      <c r="C29" s="42"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="67" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="43" t="s">
+      <c r="B30" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="76"/>
-      <c r="D30" s="43" t="s">
+      <c r="C30" s="77"/>
+      <c r="D30" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="65" t="s">
+      <c r="E30" s="67" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="63"/>
-      <c r="C31" s="76"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="65" t="s">
+      <c r="B31" s="65"/>
+      <c r="C31" s="77"/>
+      <c r="D31" s="72"/>
+      <c r="E31" s="67" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="76"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="65" t="s">
+      <c r="B32" s="65"/>
+      <c r="C32" s="77"/>
+      <c r="D32" s="72"/>
+      <c r="E32" s="67" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="77" t="s">
+      <c r="B33" s="78" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="65" t="s">
+      <c r="C33" s="72"/>
+      <c r="D33" s="72"/>
+      <c r="E33" s="67" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2902,138 +2936,138 @@
       <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="41" t="b">
+      <c r="B34" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="C34" s="41"/>
-      <c r="D34" s="41"/>
-      <c r="E34" s="65" t="s">
+      <c r="C34" s="42"/>
+      <c r="D34" s="42"/>
+      <c r="E34" s="67" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="41"/>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="65" t="s">
+      <c r="B35" s="42"/>
+      <c r="C35" s="42"/>
+      <c r="D35" s="42"/>
+      <c r="E35" s="67" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="41"/>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="64" t="s">
+      <c r="B36" s="42"/>
+      <c r="C36" s="42"/>
+      <c r="D36" s="42"/>
+      <c r="E36" s="66" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="41" t="s">
+      <c r="C37" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="41" t="s">
+      <c r="D37" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="64" t="s">
+      <c r="E37" s="66" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A38" s="42" t="s">
+      <c r="A38" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="74">
+      <c r="B38" s="75">
         <v>25</v>
       </c>
-      <c r="C38" s="74"/>
-      <c r="D38" s="74"/>
-      <c r="E38" s="64" t="s">
+      <c r="C38" s="75"/>
+      <c r="D38" s="75"/>
+      <c r="E38" s="66" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A39" s="42" t="s">
+      <c r="A39" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="74"/>
-      <c r="C39" s="74"/>
-      <c r="D39" s="74"/>
-      <c r="E39" s="64"/>
+      <c r="B39" s="75"/>
+      <c r="C39" s="75"/>
+      <c r="D39" s="75"/>
+      <c r="E39" s="66"/>
     </row>
     <row r="40" ht="13.9" customHeight="1" spans="1:4">
-      <c r="A40" s="56"/>
-      <c r="D40" s="67"/>
+      <c r="A40" s="59"/>
+      <c r="D40" s="69"/>
     </row>
     <row r="41" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A41" s="42" t="s">
+      <c r="A41" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="78" t="s">
+      <c r="B41" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="63"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="65"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="65"/>
+      <c r="E41" s="67"/>
     </row>
     <row r="42" ht="13.9" customHeight="1" spans="1:5">
-      <c r="A42" s="42" t="s">
+      <c r="A42" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="43" t="s">
+      <c r="B42" s="44" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="63"/>
-      <c r="D42" s="63"/>
-      <c r="E42" s="65" t="s">
+      <c r="C42" s="65"/>
+      <c r="D42" s="65"/>
+      <c r="E42" s="67" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" spans="1:4">
-      <c r="A43" s="56"/>
-      <c r="D43" s="67"/>
+      <c r="A43" s="59"/>
+      <c r="D43" s="69"/>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A44" s="42" t="s">
+      <c r="A44" s="43" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="41" t="b">
+      <c r="B44" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="41" t="b">
+      <c r="C44" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="41"/>
-      <c r="E44" s="64"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="66"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:5">
       <c r="A45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="43" t="str">
+      <c r="B45" s="44" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B3,IF(B9="Spanish",LanguageSettings!$D3,LanguageSettings!$C3)),"%ProcessName%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - Status Report</v>
       </c>
-      <c r="C45" s="43" t="str">
+      <c r="C45" s="44" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B3,IF(B9="Spanish",LanguageSettings!$D3,LanguageSettings!$C3)),"%ProcessName%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - Status Report</v>
       </c>
-      <c r="D45" s="43" t="str">
+      <c r="D45" s="44" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B3,IF(B9="Spanish",LanguageSettings!$D3,LanguageSettings!$C3)),"%ProcessName%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - Status Report</v>
       </c>
-      <c r="E45" s="64" t="s">
+      <c r="E45" s="66" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3041,14 +3075,14 @@
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="43" t="str">
+      <c r="B46" s="44" t="str">
         <f>IF(B9="English",LanguageSettings!$B4,IF(B9="Spanish",LanguageSettings!$D4,LanguageSettings!$C4))</f>
         <v>&lt;p&gt;Vous trouverez le rapport de dispatch joint à ce mail. 
 %SRSummary%&lt;/p&gt;</v>
       </c>
-      <c r="C46" s="43"/>
-      <c r="D46" s="43"/>
-      <c r="E46" s="64" t="s">
+      <c r="C46" s="44"/>
+      <c r="D46" s="44"/>
+      <c r="E46" s="66" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3056,13 +3090,13 @@
       <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="43" t="str">
+      <c r="B47" s="44" t="str">
         <f>IF(B9="English",LanguageSettings!$B5,IF(B9="Spanish",LanguageSettings!$D5,LanguageSettings!$C5))</f>
         <v>&lt;p&gt;Le processus s’est arrêté après avoir atteint le nombre maximum d’erreurs inattendues autorisées. Vous trouverez le rapport de dispatch joint à ce mail.&lt;/p&gt;</v>
       </c>
-      <c r="C47" s="43"/>
-      <c r="D47" s="43"/>
-      <c r="E47" s="64" t="s">
+      <c r="C47" s="44"/>
+      <c r="D47" s="44"/>
+      <c r="E47" s="66" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3070,13 +3104,13 @@
       <c r="A48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="43" t="str">
+      <c r="B48" s="44" t="str">
         <f>IF(B9="English",LanguageSettings!$B6,IF(B9="Spanish",LanguageSettings!$D6,LanguageSettings!$C6))</f>
         <v>&lt;p&gt;Résumé : &lt;br&gt;Au total, {0} Transaction(s) ont été traitées. {1} Transaction(s) ont réussi et {2} Transaction(s) n’ont pas réussi. &lt;br&gt;&lt;br&gt;Anomalies : {3}&lt;/p&gt;</v>
       </c>
-      <c r="C48" s="76"/>
-      <c r="D48" s="70"/>
-      <c r="E48" s="64" t="s">
+      <c r="C48" s="77"/>
+      <c r="D48" s="72"/>
+      <c r="E48" s="66" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3084,30 +3118,30 @@
       <c r="A49" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="43" t="str">
+      <c r="B49" s="44" t="str">
         <f>IF(B9="English",LanguageSettings!$B7,IF(B9="Spanish",LanguageSettings!$D7,LanguageSettings!$C7))</f>
         <v>&lt;p&gt;Résumé : &lt;br&gt;Aucune donnée de transaction n’a été trouvée. Veuillez vérifier le processus pour plus de détails.&lt;/p&gt;</v>
       </c>
-      <c r="C49" s="43"/>
-      <c r="D49" s="43"/>
-      <c r="E49" s="64" t="s">
+      <c r="C49" s="44"/>
+      <c r="D49" s="44"/>
+      <c r="E49" s="66" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A50" s="42" t="s">
+      <c r="A50" s="43" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="43" t="s">
+      <c r="B50" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="55" t="s">
+      <c r="C50" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="43" t="s">
+      <c r="D50" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="65" t="s">
+      <c r="E50" s="67" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3115,12 +3149,12 @@
       <c r="A51" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="43" t="s">
+      <c r="B51" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="43"/>
-      <c r="D51" s="43"/>
-      <c r="E51" s="64" t="s">
+      <c r="C51" s="44"/>
+      <c r="D51" s="44"/>
+      <c r="E51" s="66" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3128,10 +3162,10 @@
       <c r="A52" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="43"/>
-      <c r="C52" s="43"/>
-      <c r="D52" s="43"/>
-      <c r="E52" s="64" t="s">
+      <c r="B52" s="44"/>
+      <c r="C52" s="44"/>
+      <c r="D52" s="44"/>
+      <c r="E52" s="66" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3139,32 +3173,32 @@
       <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="43">
+      <c r="B53" s="44">
         <v>3</v>
       </c>
-      <c r="C53" s="43"/>
-      <c r="D53" s="43"/>
-      <c r="E53" s="64" t="s">
+      <c r="C53" s="44"/>
+      <c r="D53" s="44"/>
+      <c r="E53" s="66" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:5">
       <c r="A54" s="10"/>
-      <c r="B54" s="43"/>
-      <c r="C54" s="43"/>
-      <c r="D54" s="43"/>
-      <c r="E54" s="64"/>
+      <c r="B54" s="44"/>
+      <c r="C54" s="44"/>
+      <c r="D54" s="44"/>
+      <c r="E54" s="66"/>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:5">
       <c r="A55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="43" t="s">
+      <c r="B55" s="44" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="43"/>
-      <c r="D55" s="43"/>
-      <c r="E55" s="64" t="s">
+      <c r="C55" s="44"/>
+      <c r="D55" s="44"/>
+      <c r="E55" s="66" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3172,12 +3206,12 @@
       <c r="A56" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="43" t="s">
+      <c r="B56" s="44" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="43"/>
-      <c r="D56" s="43"/>
-      <c r="E56" s="64" t="s">
+      <c r="C56" s="44"/>
+      <c r="D56" s="44"/>
+      <c r="E56" s="66" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3185,12 +3219,12 @@
       <c r="A57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="43" t="s">
+      <c r="B57" s="44" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="43"/>
-      <c r="D57" s="43"/>
-      <c r="E57" s="64" t="s">
+      <c r="C57" s="44"/>
+      <c r="D57" s="44"/>
+      <c r="E57" s="66" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3198,12 +3232,12 @@
       <c r="A58" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="41" t="b">
+      <c r="B58" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="C58" s="43"/>
-      <c r="D58" s="43"/>
-      <c r="E58" s="64" t="s">
+      <c r="C58" s="44"/>
+      <c r="D58" s="44"/>
+      <c r="E58" s="66" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3211,52 +3245,52 @@
       <c r="A59" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="41" t="s">
+      <c r="B59" s="42" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="43"/>
-      <c r="D59" s="43"/>
-      <c r="E59" s="64" t="s">
+      <c r="C59" s="44"/>
+      <c r="D59" s="44"/>
+      <c r="E59" s="66" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A60" s="75"/>
-      <c r="B60" s="79"/>
-      <c r="C60" s="79"/>
-      <c r="D60" s="79"/>
-      <c r="E60" s="80"/>
+      <c r="A60" s="76"/>
+      <c r="B60" s="80"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="80"/>
+      <c r="E60" s="81"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:5">
       <c r="A61" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="41" t="b">
+      <c r="B61" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C61" s="41" t="b">
+      <c r="C61" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D61" s="41"/>
-      <c r="E61" s="64"/>
+      <c r="D61" s="42"/>
+      <c r="E61" s="66"/>
     </row>
     <row r="62" ht="14.25" customHeight="1" spans="1:5">
       <c r="A62" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="43" t="str">
+      <c r="B62" s="44" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B10,IF(B9="Spanish",LanguageSettings!$D10,LanguageSettings!$C10)),"%ProcessName%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - System Exception</v>
       </c>
-      <c r="C62" s="43" t="str">
+      <c r="C62" s="44" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B10,IF(B9="Spanish",LanguageSettings!$D10,LanguageSettings!$C10)),"%ProcessName%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - System Exception</v>
       </c>
-      <c r="D62" s="43" t="str">
+      <c r="D62" s="44" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B10,IF(B9="Spanish",LanguageSettings!$D10,LanguageSettings!$C10)),"%ProcessName%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - System Exception</v>
       </c>
-      <c r="E62" s="65" t="s">
+      <c r="E62" s="67" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3264,45 +3298,45 @@
       <c r="A63" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="43" t="str">
+      <c r="B63" s="44" t="str">
         <f>IF(B9="English",LanguageSettings!$B11,IF(B9="Spanish",LanguageSettings!$D11,LanguageSettings!$C11))</f>
         <v>&lt;p&gt;Le %Process% a été interrompu en raison d’une erreur inattendue lors de l’étape d’initialisation. Veuillez informer votre personne de contact RPA.&lt;/p&gt; </v>
       </c>
-      <c r="C63" s="43"/>
-      <c r="D63" s="43"/>
-      <c r="E63" s="65" t="s">
+      <c r="C63" s="44"/>
+      <c r="D63" s="44"/>
+      <c r="E63" s="67" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A64" s="42" t="s">
+      <c r="A64" s="43" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="43" t="str">
+      <c r="B64" s="44" t="str">
         <f>IF(B9="English",LanguageSettings!$B12,IF(B9="Spanish",LanguageSettings!$D12,LanguageSettings!$C12))</f>
         <v>&lt;p&gt;La transaction avec l’ID %ID% , avec le collaborateur
  %COLLABORATEUR% , a été interrompue, en raison d’une erreur inattendue. Une capture d’écran et un fichier journal sont joints à ce courrier. Le processus se poursuivra avec la prochaine transaction. Vous recevrez un rapport d’état lorsque toutes les transactions seront traitées. &lt;p&gt;Message - Détails du processus:&lt;br /&gt;%ErrorMessage%&lt;/p&gt; &lt;p&gt;Message - Source de l’activité:&lt;br /&gt;%ErrorSource%&lt;/p&gt; &lt;/p&gt;</v>
       </c>
-      <c r="C64" s="43"/>
-      <c r="D64" s="43"/>
-      <c r="E64" s="65" t="s">
+      <c r="C64" s="44"/>
+      <c r="D64" s="44"/>
+      <c r="E64" s="67" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A65" s="42" t="s">
+      <c r="A65" s="43" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="43" t="s">
+      <c r="B65" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="55" t="s">
+      <c r="C65" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="43" t="s">
+      <c r="D65" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="65" t="s">
+      <c r="E65" s="67" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3310,12 +3344,12 @@
       <c r="A66" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="43" t="s">
+      <c r="B66" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="81"/>
-      <c r="D66" s="81"/>
-      <c r="E66" s="65" t="s">
+      <c r="C66" s="82"/>
+      <c r="D66" s="82"/>
+      <c r="E66" s="67" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3323,92 +3357,92 @@
       <c r="A67" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="81"/>
-      <c r="C67" s="81"/>
-      <c r="D67" s="81"/>
-      <c r="E67" s="65" t="s">
+      <c r="B67" s="82"/>
+      <c r="C67" s="82"/>
+      <c r="D67" s="82"/>
+      <c r="E67" s="67" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A68" s="75"/>
-      <c r="B68" s="67"/>
-      <c r="C68" s="67"/>
-      <c r="D68" s="67"/>
+      <c r="A68" s="76"/>
+      <c r="B68" s="69"/>
+      <c r="C68" s="69"/>
+      <c r="D68" s="69"/>
     </row>
     <row r="69" ht="14.25" customHeight="1" spans="1:5">
       <c r="A69" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="41" t="b">
+      <c r="B69" s="42" t="b">
         <v>1</v>
       </c>
-      <c r="C69" s="41" t="b">
+      <c r="C69" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D69" s="41"/>
-      <c r="E69" s="65"/>
+      <c r="D69" s="42"/>
+      <c r="E69" s="67"/>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A70" s="42" t="s">
+      <c r="A70" s="43" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="43" t="str">
+      <c r="B70" s="44" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B13,IF(B9="Spanish",LanguageSettings!$D13,LanguageSettings!$C13)),"%ProcessName%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - Casier judiciaire non lisible par le robot pour le collaborateur %COLLABORATEUR% , Matricule : %MATRICULE% - Business Rule Exception</v>
       </c>
-      <c r="C70" s="43" t="str">
+      <c r="C70" s="44" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B13,IF(B9="Spanish",LanguageSettings!$D13,LanguageSettings!$C13)),"%ProcessName%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - Casier judiciaire non lisible par le robot pour le collaborateur %COLLABORATEUR% , Matricule : %MATRICULE% - Business Rule Exception</v>
       </c>
-      <c r="D70" s="43" t="str">
+      <c r="D70" s="44" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B13,IF(B9="Spanish",LanguageSettings!$D13,LanguageSettings!$C13)),"%ProcessName%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - Casier judiciaire non lisible par le robot pour le collaborateur %COLLABORATEUR% , Matricule : %MATRICULE% - Business Rule Exception</v>
       </c>
-      <c r="E70" s="65" t="s">
+      <c r="E70" s="67" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A71" s="42" t="s">
+      <c r="A71" s="43" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="63" t="str">
+      <c r="B71" s="65" t="str">
         <f>IF(B9="English",LanguageSettings!$B14,IF(B9="Spanish",LanguageSettings!$D14,LanguageSettings!$C14))</f>
         <v>&lt;p&gt;La transaction avec l’ID %ID% , avec le collaborateur
  %COLLABORATEUR% ,  a été interrompue, en raison d’une erreur définie. Le processus se poursuivra avec la prochaine transaction. Vous recevrez un rapport d’état lorsque toutes les transactions seront traitées. &lt;p&gt;Cause de l’erreur:&lt;br /&gt;%ErrorMessage%&lt;/p&gt;&lt;/p&gt;</v>
       </c>
-      <c r="C71" s="63"/>
-      <c r="D71" s="63"/>
-      <c r="E71" s="65"/>
+      <c r="C71" s="65"/>
+      <c r="D71" s="65"/>
+      <c r="E71" s="67"/>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A72" s="42" t="s">
+      <c r="A72" s="43" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="43" t="s">
+      <c r="B72" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="55" t="s">
+      <c r="C72" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="43" t="s">
+      <c r="D72" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="65" t="s">
+      <c r="E72" s="67" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A73" s="42" t="s">
+      <c r="A73" s="43" t="s">
         <v>139</v>
       </c>
       <c r="B73" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="41"/>
-      <c r="D73" s="41"/>
-      <c r="E73" s="65" t="s">
+      <c r="C73" s="42"/>
+      <c r="D73" s="42"/>
+      <c r="E73" s="67" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3416,96 +3450,96 @@
       <c r="A74" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="41"/>
-      <c r="C74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="65" t="s">
+      <c r="B74" s="42"/>
+      <c r="C74" s="42"/>
+      <c r="D74" s="42"/>
+      <c r="E74" s="67" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A75" s="82"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
-      <c r="E75" s="83"/>
+      <c r="A75" s="83"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
+      <c r="E75" s="84"/>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:5">
       <c r="A76" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="41" t="b">
+      <c r="B76" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="C76" s="41" t="b">
+      <c r="C76" s="42" t="b">
         <v>0</v>
       </c>
-      <c r="D76" s="41"/>
-      <c r="E76" s="65" t="s">
+      <c r="D76" s="42"/>
+      <c r="E76" s="67" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A77" s="42" t="s">
+      <c r="A77" s="43" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="43" t="str">
+      <c r="B77" s="44" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B8,IF(B9="Spanish",LanguageSettings!$D8,LanguageSettings!$C8)),"%Process%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - Process Started</v>
       </c>
-      <c r="C77" s="43" t="str">
+      <c r="C77" s="44" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B8,IF(B9="Spanish",LanguageSettings!$D8,LanguageSettings!$C8)),"%Process%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - Process Started</v>
       </c>
-      <c r="D77" s="43" t="str">
+      <c r="D77" s="44" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B8,IF(B9="Spanish",LanguageSettings!$D8,LanguageSettings!$C8)),"%Process%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - Process Started</v>
       </c>
-      <c r="E77" s="65" t="s">
+      <c r="E77" s="67" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A78" s="42" t="s">
+      <c r="A78" s="43" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="43" t="str">
+      <c r="B78" s="44" t="str">
         <f>IF(B9="English",LanguageSettings!$B9,IF(B9="Spanish",LanguageSettings!$D9,LanguageSettings!$C9))</f>
         <v>&lt;p&gt;Le processus d’exécution a démarré avec succès et va maintenant commencer à traiter les éléments de travail dans la file d’attente (s’il y en a).&lt;/p&gt;</v>
       </c>
-      <c r="C78" s="63"/>
-      <c r="D78" s="63"/>
-      <c r="E78" s="65" t="s">
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="67" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A79" s="42" t="s">
+      <c r="A79" s="43" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="43" t="s">
+      <c r="B79" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="55" t="s">
+      <c r="C79" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="43" t="s">
+      <c r="D79" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="65" t="s">
+      <c r="E79" s="67" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A80" s="42" t="s">
+      <c r="A80" s="43" t="s">
         <v>152</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="41"/>
-      <c r="D80" s="41"/>
-      <c r="E80" s="65" t="s">
+      <c r="C80" s="42"/>
+      <c r="D80" s="42"/>
+      <c r="E80" s="67" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3513,18 +3547,18 @@
       <c r="A81" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="43"/>
-      <c r="C81" s="41"/>
-      <c r="D81" s="41"/>
-      <c r="E81" s="65" t="s">
+      <c r="B81" s="44"/>
+      <c r="C81" s="42"/>
+      <c r="D81" s="42"/>
+      <c r="E81" s="67" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" s="33" customFormat="1" ht="14.25" customHeight="1" spans="2:5">
-      <c r="B82" s="34"/>
-      <c r="C82" s="34"/>
-      <c r="D82" s="34"/>
-      <c r="E82" s="59"/>
+    <row r="82" s="34" customFormat="1" ht="14.25" customHeight="1" spans="2:5">
+      <c r="B82" s="35"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="61"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3565,34 +3599,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N81"/>
+  <dimension ref="A1:N87"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33"/>
+      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.1809523809524" style="33" customWidth="1"/>
-    <col min="2" max="2" width="112.266666666667" style="34" customWidth="1"/>
-    <col min="3" max="3" width="30.3619047619048" style="34" customWidth="1"/>
-    <col min="4" max="4" width="36.7238095238095" style="34" customWidth="1"/>
-    <col min="5" max="5" width="214.266666666667" style="35" customWidth="1"/>
+    <col min="1" max="1" width="41.1809523809524" style="34" customWidth="1"/>
+    <col min="2" max="2" width="112.266666666667" style="35" customWidth="1"/>
+    <col min="3" max="3" width="30.3619047619048" style="35" customWidth="1"/>
+    <col min="4" max="4" width="36.7238095238095" style="35" customWidth="1"/>
+    <col min="5" max="5" width="214.266666666667" style="36" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="1" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
+      <c r="B1" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="37" t="s">
+      <c r="C1" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="37" t="s">
+      <c r="D1" s="38" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -3600,791 +3634,863 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A2" s="38" t="s">
+      <c r="A2" s="39" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="39" t="s">
+      <c r="B2" s="40" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="40" t="s">
+      <c r="C2" s="40"/>
+      <c r="D2" s="40"/>
+      <c r="E2" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="41"/>
-      <c r="G2" s="41"/>
-      <c r="H2" s="41"/>
-      <c r="I2" s="41"/>
-      <c r="J2" s="41"/>
-      <c r="K2" s="41"/>
-      <c r="L2" s="41"/>
-      <c r="M2" s="41"/>
-      <c r="N2" s="41"/>
+      <c r="F2" s="42"/>
+      <c r="G2" s="42"/>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42"/>
+      <c r="M2" s="42"/>
+      <c r="N2" s="42"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="41" t="s">
+      <c r="B3" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="40" t="s">
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="41"/>
-      <c r="G3" s="41"/>
-      <c r="H3" s="41"/>
-      <c r="I3" s="41"/>
-      <c r="J3" s="41"/>
-      <c r="K3" s="41"/>
-      <c r="L3" s="41"/>
-      <c r="M3" s="41"/>
-      <c r="N3" s="41"/>
+      <c r="F3" s="42"/>
+      <c r="G3" s="42"/>
+      <c r="H3" s="42"/>
+      <c r="I3" s="42"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:14">
       <c r="A4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="41" t="s">
+      <c r="B4" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="40" t="s">
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="41" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="41"/>
-      <c r="N4" s="41"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="42"/>
+      <c r="H4" s="42"/>
+      <c r="I4" s="42"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="42"/>
+      <c r="L4" s="42"/>
+      <c r="M4" s="42"/>
+      <c r="N4" s="42"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="43" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="41" t="s">
+      <c r="B5" s="42" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="40"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="41"/>
-      <c r="N5" s="41"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+      <c r="I5" s="42"/>
+      <c r="J5" s="42"/>
+      <c r="K5" s="42"/>
+      <c r="L5" s="42"/>
+      <c r="M5" s="42"/>
+      <c r="N5" s="42"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A6" s="42" t="s">
+      <c r="A6" s="43" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="43" t="s">
+      <c r="B6" s="44" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="40"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="41"/>
-      <c r="N6" s="41"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+      <c r="I6" s="42"/>
+      <c r="J6" s="42"/>
+      <c r="K6" s="42"/>
+      <c r="L6" s="42"/>
+      <c r="M6" s="42"/>
+      <c r="N6" s="42"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A7" s="42" t="s">
+      <c r="A7" s="43" t="s">
         <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="40"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="41"/>
-      <c r="N7" s="41"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+      <c r="I7" s="42"/>
+      <c r="J7" s="42"/>
+      <c r="K7" s="42"/>
+      <c r="L7" s="42"/>
+      <c r="M7" s="42"/>
+      <c r="N7" s="42"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="42" t="s">
+      <c r="A8" s="43" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="42" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="42" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="41" t="s">
+      <c r="D8" s="42" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="44"/>
+      <c r="E8" s="45"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="42" t="s">
+      <c r="A9" s="43" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="42" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="44"/>
+      <c r="C9" s="42"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="45"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A10" s="42" t="s">
+      <c r="A10" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="42" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="42" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="41" t="s">
+      <c r="D10" s="42" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="44"/>
+      <c r="E10" s="45"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="42" t="s">
+      <c r="A11" s="43" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="42" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="44"/>
+      <c r="C11" s="42"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="45"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="42" t="s">
+      <c r="A12" s="43" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="42" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="44"/>
+      <c r="C12" s="42"/>
+      <c r="D12" s="42"/>
+      <c r="E12" s="45"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="42" t="s">
+      <c r="A13" s="43" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="42" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="44"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="45"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="42" t="s">
+      <c r="A14" s="43" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="41" t="s">
+      <c r="B14" s="42" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="41" t="s">
+      <c r="C14" s="42" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="41" t="s">
+      <c r="D14" s="42" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="44" t="s">
+      <c r="E14" s="45" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="42" t="s">
+      <c r="A15" s="43" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="42" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="44"/>
+      <c r="C15" s="42"/>
+      <c r="D15" s="42"/>
+      <c r="E15" s="45"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A17" s="42" t="s">
+      <c r="A17" s="43" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="45" t="s">
+      <c r="B17" s="46" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="44"/>
+      <c r="C17" s="42"/>
+      <c r="D17" s="42"/>
+      <c r="E17" s="45"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A18" s="42" t="s">
+      <c r="A18" s="43" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="45">
+      <c r="B18" s="46">
         <v>20</v>
       </c>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="44"/>
+      <c r="C18" s="42"/>
+      <c r="D18" s="42"/>
+      <c r="E18" s="45"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A19" s="42" t="s">
+      <c r="A19" s="43" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="45" t="s">
+      <c r="B19" s="46" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="41" t="s">
+      <c r="C19" s="42" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="44"/>
+      <c r="D19" s="42"/>
+      <c r="E19" s="45"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A20" s="42" t="s">
+      <c r="A20" s="43" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="45" t="s">
+      <c r="B20" s="46" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="41" t="s">
+      <c r="C20" s="42" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="41"/>
-      <c r="E20" s="44"/>
+      <c r="D20" s="42"/>
+      <c r="E20" s="45"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A21" s="42" t="s">
+      <c r="A21" s="43" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="45" t="s">
+      <c r="B21" s="46" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="41" t="s">
+      <c r="C21" s="42" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="44"/>
+      <c r="D21" s="42"/>
+      <c r="E21" s="45"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A22" s="42" t="s">
+      <c r="A22" s="43" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="45" t="s">
+      <c r="B22" s="46" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="41" t="s">
+      <c r="C22" s="42" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="44"/>
+      <c r="D22" s="42"/>
+      <c r="E22" s="45"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A23" s="42" t="s">
+      <c r="A23" s="43" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="46" t="s">
+      <c r="B23" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="47" t="s">
+      <c r="C23" s="48" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="44"/>
+      <c r="D23" s="42"/>
+      <c r="E23" s="45"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A24" s="42" t="s">
+      <c r="A24" s="43" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="46" t="s">
+      <c r="B24" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="47" t="s">
+      <c r="C24" s="48" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="44"/>
+      <c r="D24" s="42"/>
+      <c r="E24" s="45"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A25" s="42" t="s">
+      <c r="A25" s="43" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="47" t="s">
+      <c r="C25" s="48" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="44"/>
+      <c r="D25" s="42"/>
+      <c r="E25" s="45"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A26" s="42" t="s">
+      <c r="A26" s="43" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="46" t="s">
+      <c r="B26" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="47" t="s">
+      <c r="C26" s="48" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="44"/>
+      <c r="D26" s="42"/>
+      <c r="E26" s="45"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A27" s="42" t="s">
+      <c r="A27" s="43" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="48">
+      <c r="B27" s="49">
         <v>0.5</v>
       </c>
-      <c r="C27" s="49">
+      <c r="C27" s="50">
         <v>0.5</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="44"/>
+      <c r="D27" s="42"/>
+      <c r="E27" s="45"/>
     </row>
     <row r="28" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A28" s="50"/>
-      <c r="B28" s="51"/>
-      <c r="C28" s="51"/>
-      <c r="D28" s="52"/>
-      <c r="E28" s="53"/>
+      <c r="A28" s="51"/>
+      <c r="B28" s="52"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="54"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A29" s="42" t="s">
+      <c r="A29" s="43" t="s">
         <v>210</v>
       </c>
-      <c r="B29" s="46" t="s">
+      <c r="B29" s="47" t="s">
         <v>211</v>
       </c>
-      <c r="C29" s="47" t="s">
+      <c r="C29" s="48" t="s">
         <v>211</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="44"/>
+      <c r="D29" s="42"/>
+      <c r="E29" s="45"/>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A30" s="42" t="s">
+      <c r="A30" s="43" t="s">
         <v>212</v>
       </c>
-      <c r="B30" s="54" t="s">
+      <c r="B30" s="55" t="s">
         <v>213</v>
       </c>
-      <c r="C30" s="47" t="s">
+      <c r="C30" s="48" t="s">
         <v>213</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="44"/>
+      <c r="D30" s="42"/>
+      <c r="E30" s="45"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A31" s="42" t="s">
+      <c r="A31" s="43" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="54" t="s">
+      <c r="B31" s="55" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="47" t="s">
+      <c r="C31" s="48" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="44"/>
+      <c r="D31" s="42"/>
+      <c r="E31" s="45"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A32" s="42" t="s">
+      <c r="A32" s="43" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="54" t="s">
+      <c r="B32" s="55" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="47" t="s">
+      <c r="C32" s="48" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="44"/>
+      <c r="D32" s="42"/>
+      <c r="E32" s="45"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A33" s="42" t="s">
+      <c r="A33" s="43" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="54" t="s">
+      <c r="B33" s="55" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="47" t="s">
+      <c r="C33" s="48" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="41"/>
-      <c r="E33" s="44"/>
+      <c r="D33" s="42"/>
+      <c r="E33" s="45"/>
+    </row>
+    <row r="34" s="33" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A34" s="51"/>
+      <c r="B34" s="56"/>
+      <c r="C34" s="32"/>
+      <c r="D34" s="53"/>
+      <c r="E34" s="54"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A35" s="42" t="s">
+      <c r="A35" s="43" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="41" t="s">
+      <c r="B35" s="57" t="s">
         <v>221</v>
       </c>
-      <c r="C35" s="41"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="44"/>
+      <c r="C35" s="57" t="s">
+        <v>221</v>
+      </c>
+      <c r="D35" s="42"/>
+      <c r="E35" s="45"/>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A36" s="42" t="s">
+      <c r="A36" s="43" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="41" t="s">
+      <c r="B36" s="48" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="44"/>
+      <c r="C36" s="48" t="s">
+        <v>223</v>
+      </c>
+      <c r="D36" s="42"/>
+      <c r="E36" s="45"/>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A37" s="42" t="s">
+      <c r="A37" s="43" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="41" t="s">
+      <c r="B37" s="57" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="41"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="44"/>
+      <c r="C37" s="57" t="s">
+        <v>225</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="45"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A38" s="42"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="41"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="44"/>
+      <c r="A38" s="43" t="s">
+        <v>226</v>
+      </c>
+      <c r="B38" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C38" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="45"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A39" s="42" t="s">
-        <v>226</v>
-      </c>
-      <c r="B39" s="41" t="s">
+      <c r="A39" s="43" t="s">
+        <v>228</v>
+      </c>
+      <c r="B39" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="C39" s="48" t="s">
+        <v>227</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="45"/>
+    </row>
+    <row r="41" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A41" s="43" t="s">
+        <v>229</v>
+      </c>
+      <c r="B41" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="C41" s="42"/>
+      <c r="D41" s="42"/>
+      <c r="E41" s="45"/>
+    </row>
+    <row r="42" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A42" s="43" t="s">
+        <v>231</v>
+      </c>
+      <c r="B42" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="C42" s="42"/>
+      <c r="D42" s="42"/>
+      <c r="E42" s="45"/>
+    </row>
+    <row r="43" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A43" s="43" t="s">
+        <v>233</v>
+      </c>
+      <c r="B43" s="42" t="s">
+        <v>234</v>
+      </c>
+      <c r="C43" s="42"/>
+      <c r="D43" s="42"/>
+      <c r="E43" s="45"/>
+    </row>
+    <row r="44" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A44" s="43"/>
+      <c r="B44" s="42"/>
+      <c r="C44" s="42"/>
+      <c r="D44" s="42"/>
+      <c r="E44" s="45"/>
+    </row>
+    <row r="45" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A45" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="B45" s="42" t="s">
         <v>160</v>
       </c>
-      <c r="C39" s="41" t="s">
+      <c r="C45" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="D39" s="41" t="s">
+      <c r="D45" s="42" t="s">
         <v>157</v>
       </c>
-      <c r="E39" s="44"/>
-    </row>
-    <row r="40" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A40" s="42" t="s">
-        <v>227</v>
-      </c>
-      <c r="B40" s="41"/>
-      <c r="C40" s="55" t="s">
+      <c r="E45" s="45"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A46" s="43" t="s">
+        <v>236</v>
+      </c>
+      <c r="B46" s="42"/>
+      <c r="C46" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="55" t="s">
+      <c r="D46" s="58" t="s">
         <v>97</v>
       </c>
-      <c r="E40" s="44"/>
-    </row>
-    <row r="41" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A41" s="42" t="s">
-        <v>228</v>
-      </c>
-      <c r="B41" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="C41" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="D41" s="41" t="s">
-        <v>229</v>
-      </c>
-      <c r="E41" s="44"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A42" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="B42" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="C42" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="D42" s="41" t="s">
-        <v>231</v>
-      </c>
-      <c r="E42" s="44"/>
-    </row>
-    <row r="43" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A43" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="B43" s="41" t="s">
-        <v>233</v>
-      </c>
-      <c r="C43" s="41" t="s">
-        <v>234</v>
-      </c>
-      <c r="D43" s="41" t="s">
-        <v>235</v>
-      </c>
-      <c r="E43" s="44"/>
-    </row>
-    <row r="44" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A44" s="42"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="41"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="44"/>
-    </row>
-    <row r="45" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A45" s="42"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="41"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="44"/>
-    </row>
-    <row r="46" customHeight="1" spans="1:4">
-      <c r="A46" s="56"/>
-      <c r="B46" s="57"/>
-      <c r="C46" s="57"/>
-      <c r="D46" s="57"/>
-    </row>
-    <row r="47" customHeight="1" spans="1:4">
-      <c r="A47" s="56"/>
-      <c r="B47" s="57"/>
-      <c r="C47" s="57"/>
-      <c r="D47" s="57"/>
-    </row>
-    <row r="48" customHeight="1" spans="1:4">
-      <c r="A48" s="56"/>
-      <c r="B48" s="57"/>
-      <c r="C48" s="57"/>
-      <c r="D48" s="57"/>
-    </row>
-    <row r="49" customHeight="1" spans="1:4">
-      <c r="A49" s="56"/>
-      <c r="B49" s="57"/>
-      <c r="C49" s="57"/>
-      <c r="D49" s="57"/>
-    </row>
-    <row r="50" customHeight="1" spans="1:4">
-      <c r="A50" s="56"/>
-      <c r="B50" s="57"/>
-      <c r="C50" s="57"/>
-      <c r="D50" s="57"/>
-    </row>
-    <row r="51" customHeight="1" spans="1:4">
-      <c r="A51" s="56"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="57"/>
-      <c r="D51" s="57"/>
+      <c r="E46" s="45"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A47" s="43" t="s">
+        <v>237</v>
+      </c>
+      <c r="B47" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="C47" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="D47" s="42" t="s">
+        <v>238</v>
+      </c>
+      <c r="E47" s="45"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A48" s="43" t="s">
+        <v>239</v>
+      </c>
+      <c r="B48" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="C48" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="D48" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="E48" s="45"/>
+    </row>
+    <row r="49" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A49" s="43" t="s">
+        <v>241</v>
+      </c>
+      <c r="B49" s="42" t="s">
+        <v>242</v>
+      </c>
+      <c r="C49" s="42" t="s">
+        <v>243</v>
+      </c>
+      <c r="D49" s="42" t="s">
+        <v>244</v>
+      </c>
+      <c r="E49" s="45"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A50" s="43"/>
+      <c r="B50" s="42"/>
+      <c r="C50" s="42"/>
+      <c r="D50" s="42"/>
+      <c r="E50" s="45"/>
+    </row>
+    <row r="51" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A51" s="43"/>
+      <c r="B51" s="42"/>
+      <c r="C51" s="42"/>
+      <c r="D51" s="42"/>
+      <c r="E51" s="45"/>
     </row>
     <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="56"/>
-      <c r="B52" s="57"/>
-      <c r="C52" s="57"/>
-      <c r="D52" s="57"/>
+      <c r="A52" s="59"/>
+      <c r="B52" s="60"/>
+      <c r="C52" s="60"/>
+      <c r="D52" s="60"/>
     </row>
     <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="56"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="57"/>
-      <c r="D53" s="57"/>
+      <c r="A53" s="59"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="60"/>
     </row>
     <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="56"/>
-      <c r="B54" s="57"/>
-      <c r="C54" s="57"/>
-      <c r="D54" s="57"/>
+      <c r="A54" s="59"/>
+      <c r="B54" s="60"/>
+      <c r="C54" s="60"/>
+      <c r="D54" s="60"/>
     </row>
     <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="56"/>
-      <c r="B55" s="57"/>
-      <c r="C55" s="57"/>
-      <c r="D55" s="57"/>
+      <c r="A55" s="59"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="60"/>
+      <c r="D55" s="60"/>
     </row>
     <row r="56" customHeight="1" spans="1:4">
-      <c r="A56" s="56"/>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
+      <c r="A56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
     </row>
     <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="56"/>
-      <c r="B57" s="57"/>
-      <c r="C57" s="57"/>
-      <c r="D57" s="57"/>
+      <c r="A57" s="59"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="60"/>
+      <c r="D57" s="60"/>
     </row>
     <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="56"/>
-      <c r="B58" s="57"/>
-      <c r="C58" s="57"/>
-      <c r="D58" s="57"/>
+      <c r="A58" s="59"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
     </row>
     <row r="59" customHeight="1" spans="1:4">
-      <c r="A59" s="56"/>
-      <c r="B59" s="57"/>
-      <c r="C59" s="57"/>
-      <c r="D59" s="57"/>
+      <c r="A59" s="59"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="60"/>
+      <c r="D59" s="60"/>
     </row>
     <row r="60" customHeight="1" spans="1:4">
-      <c r="A60" s="56"/>
-      <c r="B60" s="57"/>
-      <c r="C60" s="57"/>
-      <c r="D60" s="57"/>
+      <c r="A60" s="59"/>
+      <c r="B60" s="60"/>
+      <c r="C60" s="60"/>
+      <c r="D60" s="60"/>
     </row>
     <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="56"/>
-      <c r="B61" s="57"/>
-      <c r="C61" s="57"/>
-      <c r="D61" s="57"/>
+      <c r="A61" s="59"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="60"/>
+      <c r="D61" s="60"/>
     </row>
     <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="56"/>
-      <c r="B62" s="57"/>
-      <c r="C62" s="57"/>
-      <c r="D62" s="57"/>
+      <c r="A62" s="59"/>
+      <c r="B62" s="60"/>
+      <c r="C62" s="60"/>
+      <c r="D62" s="60"/>
     </row>
     <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="56"/>
-      <c r="B63" s="57"/>
-      <c r="C63" s="57"/>
-      <c r="D63" s="57"/>
+      <c r="A63" s="59"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="60"/>
+      <c r="D63" s="60"/>
     </row>
     <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="56"/>
-      <c r="B64" s="57"/>
-      <c r="C64" s="57"/>
-      <c r="D64" s="57"/>
+      <c r="A64" s="59"/>
+      <c r="B64" s="60"/>
+      <c r="C64" s="60"/>
+      <c r="D64" s="60"/>
     </row>
     <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="56"/>
-      <c r="B65" s="57"/>
-      <c r="C65" s="57"/>
-      <c r="D65" s="57"/>
+      <c r="A65" s="59"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="60"/>
+      <c r="D65" s="60"/>
     </row>
     <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="56"/>
-      <c r="B66" s="57"/>
-      <c r="C66" s="57"/>
-      <c r="D66" s="57"/>
+      <c r="A66" s="59"/>
+      <c r="B66" s="60"/>
+      <c r="C66" s="60"/>
+      <c r="D66" s="60"/>
     </row>
     <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="56"/>
-      <c r="B67" s="57"/>
-      <c r="C67" s="57"/>
-      <c r="D67" s="57"/>
+      <c r="A67" s="59"/>
+      <c r="B67" s="60"/>
+      <c r="C67" s="60"/>
+      <c r="D67" s="60"/>
     </row>
     <row r="68" customHeight="1" spans="1:4">
-      <c r="A68" s="56"/>
-      <c r="B68" s="57"/>
-      <c r="C68" s="57"/>
-      <c r="D68" s="57"/>
+      <c r="A68" s="59"/>
+      <c r="B68" s="60"/>
+      <c r="C68" s="60"/>
+      <c r="D68" s="60"/>
     </row>
     <row r="69" customHeight="1" spans="1:4">
-      <c r="A69" s="56"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="57"/>
-      <c r="D69" s="57"/>
+      <c r="A69" s="59"/>
+      <c r="B69" s="60"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="60"/>
     </row>
     <row r="70" customHeight="1" spans="1:4">
-      <c r="A70" s="56"/>
-      <c r="B70" s="57"/>
-      <c r="C70" s="57"/>
-      <c r="D70" s="57"/>
+      <c r="A70" s="59"/>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
+      <c r="D70" s="60"/>
     </row>
     <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" s="56"/>
-      <c r="B71" s="57"/>
-      <c r="C71" s="57"/>
-      <c r="D71" s="57"/>
+      <c r="A71" s="59"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
     </row>
     <row r="72" customHeight="1" spans="1:4">
-      <c r="A72" s="56"/>
-      <c r="B72" s="57"/>
-      <c r="C72" s="57"/>
-      <c r="D72" s="57"/>
+      <c r="A72" s="59"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
     </row>
     <row r="73" customHeight="1" spans="1:4">
-      <c r="A73" s="56"/>
-      <c r="B73" s="57"/>
-      <c r="C73" s="57"/>
-      <c r="D73" s="57"/>
+      <c r="A73" s="59"/>
+      <c r="B73" s="60"/>
+      <c r="C73" s="60"/>
+      <c r="D73" s="60"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="56"/>
-      <c r="B74" s="57"/>
-      <c r="C74" s="57"/>
-      <c r="D74" s="57"/>
+      <c r="A74" s="59"/>
+      <c r="B74" s="60"/>
+      <c r="C74" s="60"/>
+      <c r="D74" s="60"/>
     </row>
     <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="56"/>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-      <c r="D75" s="57"/>
+      <c r="A75" s="59"/>
+      <c r="B75" s="60"/>
+      <c r="C75" s="60"/>
+      <c r="D75" s="60"/>
     </row>
     <row r="76" customHeight="1" spans="1:4">
-      <c r="A76" s="56"/>
-      <c r="B76" s="57"/>
-      <c r="C76" s="57"/>
-      <c r="D76" s="57"/>
+      <c r="A76" s="59"/>
+      <c r="B76" s="60"/>
+      <c r="C76" s="60"/>
+      <c r="D76" s="60"/>
     </row>
     <row r="77" customHeight="1" spans="1:4">
-      <c r="A77" s="56"/>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
-      <c r="D77" s="57"/>
+      <c r="A77" s="59"/>
+      <c r="B77" s="60"/>
+      <c r="C77" s="60"/>
+      <c r="D77" s="60"/>
     </row>
     <row r="78" customHeight="1" spans="1:4">
-      <c r="A78" s="56"/>
-      <c r="B78" s="57"/>
-      <c r="C78" s="57"/>
-      <c r="D78" s="57"/>
+      <c r="A78" s="59"/>
+      <c r="B78" s="60"/>
+      <c r="C78" s="60"/>
+      <c r="D78" s="60"/>
     </row>
     <row r="79" customHeight="1" spans="1:4">
-      <c r="A79" s="56"/>
-      <c r="B79" s="57"/>
-      <c r="C79" s="57"/>
-      <c r="D79" s="57"/>
+      <c r="A79" s="59"/>
+      <c r="B79" s="60"/>
+      <c r="C79" s="60"/>
+      <c r="D79" s="60"/>
     </row>
     <row r="80" customHeight="1" spans="1:4">
-      <c r="A80" s="56"/>
-      <c r="B80" s="57"/>
-      <c r="C80" s="57"/>
-      <c r="D80" s="57"/>
+      <c r="A80" s="59"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
+      <c r="D80" s="60"/>
     </row>
     <row r="81" customHeight="1" spans="1:4">
-      <c r="A81" s="56"/>
-      <c r="B81" s="57"/>
-      <c r="C81" s="57"/>
-      <c r="D81" s="57"/>
+      <c r="A81" s="59"/>
+      <c r="B81" s="60"/>
+      <c r="C81" s="60"/>
+      <c r="D81" s="60"/>
+    </row>
+    <row r="82" customHeight="1" spans="1:4">
+      <c r="A82" s="59"/>
+      <c r="B82" s="60"/>
+      <c r="C82" s="60"/>
+      <c r="D82" s="60"/>
+    </row>
+    <row r="83" customHeight="1" spans="1:4">
+      <c r="A83" s="59"/>
+      <c r="B83" s="60"/>
+      <c r="C83" s="60"/>
+      <c r="D83" s="60"/>
+    </row>
+    <row r="84" customHeight="1" spans="1:4">
+      <c r="A84" s="59"/>
+      <c r="B84" s="60"/>
+      <c r="C84" s="60"/>
+      <c r="D84" s="60"/>
+    </row>
+    <row r="85" customHeight="1" spans="1:4">
+      <c r="A85" s="59"/>
+      <c r="B85" s="60"/>
+      <c r="C85" s="60"/>
+      <c r="D85" s="60"/>
+    </row>
+    <row r="86" customHeight="1" spans="1:4">
+      <c r="A86" s="59"/>
+      <c r="B86" s="60"/>
+      <c r="C86" s="60"/>
+      <c r="D86" s="60"/>
+    </row>
+    <row r="87" customHeight="1" spans="1:4">
+      <c r="A87" s="59"/>
+      <c r="B87" s="60"/>
+      <c r="C87" s="60"/>
+      <c r="D87" s="60"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C40" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
-    <hyperlink ref="D40" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
+    <hyperlink ref="C46" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
+    <hyperlink ref="D46" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4434,7 +4540,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>236</v>
+        <v>245</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4443,7 +4549,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>237</v>
+        <v>246</v>
       </c>
       <c r="B3" s="24">
         <v>0</v>
@@ -4451,12 +4557,12 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="25" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
       <c r="A4" s="15" t="s">
-        <v>239</v>
+        <v>248</v>
       </c>
       <c r="B4" s="4">
         <v>200</v>
@@ -4464,12 +4570,12 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="14" t="s">
-        <v>240</v>
+        <v>249</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
       <c r="A5" s="15" t="s">
-        <v>241</v>
+        <v>250</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -4477,12 +4583,12 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="14" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
       <c r="A6" s="16" t="s">
-        <v>243</v>
+        <v>252</v>
       </c>
       <c r="B6" s="17">
         <v>3</v>
@@ -4490,13 +4596,13 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="B8" s="24">
         <v>5</v>
@@ -4504,12 +4610,12 @@
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
       <c r="A9" s="15" t="s">
-        <v>247</v>
+        <v>256</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
@@ -4517,12 +4623,12 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14" t="s">
-        <v>248</v>
+        <v>257</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
       <c r="A10" s="16" t="s">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="B10" s="17">
         <v>120</v>
@@ -4530,13 +4636,13 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18" t="s">
-        <v>250</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
       <c r="A12" s="23" t="s">
-        <v>251</v>
+        <v>260</v>
       </c>
       <c r="B12" s="24">
         <v>1</v>
@@ -4544,12 +4650,12 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25" t="s">
-        <v>252</v>
+        <v>261</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
       <c r="A13" s="15" t="s">
-        <v>253</v>
+        <v>262</v>
       </c>
       <c r="B13" s="4">
         <v>15</v>
@@ -4557,12 +4663,12 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14" t="s">
-        <v>254</v>
+        <v>263</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
       <c r="A14" s="16" t="s">
-        <v>255</v>
+        <v>264</v>
       </c>
       <c r="B14" s="17">
         <v>60</v>
@@ -4570,13 +4676,13 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18" t="s">
-        <v>256</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
       <c r="A16" s="23" t="s">
-        <v>257</v>
+        <v>266</v>
       </c>
       <c r="B16" s="24">
         <v>0.6</v>
@@ -4584,12 +4690,12 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25" t="s">
-        <v>258</v>
+        <v>267</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:5">
       <c r="A17" s="15" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="B17" s="4">
         <v>0.8</v>
@@ -4597,12 +4703,12 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:5">
       <c r="A18" s="16" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
       <c r="B18" s="17">
         <v>0.9</v>
@@ -4610,92 +4716,92 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1" spans="1:5">
       <c r="A20" s="23" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:5">
       <c r="A21" s="15" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="14" t="s">
-        <v>268</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:5">
       <c r="A22" s="15" t="s">
-        <v>269</v>
+        <v>278</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>270</v>
+        <v>279</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="14" t="s">
-        <v>271</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:5">
       <c r="A23" s="15" t="s">
-        <v>272</v>
+        <v>281</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>273</v>
+        <v>282</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="14" t="s">
-        <v>274</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:5">
       <c r="A24" s="16" t="s">
-        <v>275</v>
+        <v>284</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>276</v>
+        <v>285</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18" t="s">
-        <v>277</v>
+        <v>286</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:5">
       <c r="A25" s="16" t="s">
-        <v>278</v>
+        <v>287</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18" t="s">
-        <v>279</v>
+        <v>288</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1" spans="1:5">
       <c r="A27" s="23" t="s">
-        <v>280</v>
+        <v>289</v>
       </c>
       <c r="B27" s="24">
         <v>0</v>
@@ -4703,12 +4809,12 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:5">
       <c r="A28" s="15" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -4716,12 +4822,12 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="14" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:5">
       <c r="A29" s="16" t="s">
-        <v>284</v>
+        <v>293</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -4729,30 +4835,30 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1" spans="1:5">
       <c r="A31" s="23" t="s">
-        <v>285</v>
+        <v>294</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>286</v>
+        <v>295</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>287</v>
+        <v>296</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>288</v>
+        <v>297</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>289</v>
+        <v>298</v>
       </c>
     </row>
     <row r="32" ht="14.15" customHeight="1" spans="1:5">
       <c r="A32" s="16" t="s">
-        <v>290</v>
+        <v>299</v>
       </c>
       <c r="B32" s="17">
         <v>7</v>
@@ -4760,13 +4866,13 @@
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18" t="s">
-        <v>291</v>
+        <v>300</v>
       </c>
     </row>
     <row r="33" ht="14.15" customHeight="1"/>
     <row r="34" ht="14.15" customHeight="1" spans="1:5">
       <c r="A34" s="23" t="s">
-        <v>292</v>
+        <v>301</v>
       </c>
       <c r="B34" s="24">
         <v>3</v>
@@ -4774,12 +4880,12 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>293</v>
+        <v>302</v>
       </c>
     </row>
     <row r="35" ht="14.15" customHeight="1" spans="1:5">
       <c r="A35" s="16" t="s">
-        <v>294</v>
+        <v>303</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -4787,13 +4893,13 @@
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18" t="s">
-        <v>295</v>
+        <v>304</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1"/>
     <row r="37" ht="14.25" customHeight="1" spans="1:5">
       <c r="A37" s="27" t="s">
-        <v>296</v>
+        <v>305</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4802,7 +4908,7 @@
     </row>
     <row r="38" s="19" customFormat="1" ht="14.25" customHeight="1" spans="1:1">
       <c r="A38" s="30" t="s">
-        <v>297</v>
+        <v>306</v>
       </c>
     </row>
   </sheetData>
@@ -4849,18 +4955,18 @@
         <v>37</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>298</v>
+        <v>307</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>299</v>
+        <v>308</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>300</v>
+        <v>309</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>32</v>
@@ -4870,10 +4976,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="15" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>301</v>
+        <v>310</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -4923,19 +5029,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>302</v>
+        <v>311</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:5">
@@ -4943,16 +5049,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>306</v>
+        <v>315</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>307</v>
+        <v>316</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>308</v>
+        <v>317</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
@@ -4960,10 +5066,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>310</v>
+        <v>319</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -4973,16 +5079,16 @@
         <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>311</v>
+        <v>320</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>312</v>
+        <v>321</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>314</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" ht="89.25" customHeight="1" spans="1:5">
@@ -4990,16 +5096,16 @@
         <v>90</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>315</v>
+        <v>324</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>316</v>
+        <v>325</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>317</v>
+        <v>326</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>318</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" ht="89.25" customHeight="1" spans="1:5">
@@ -5007,16 +5113,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>319</v>
+        <v>328</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>320</v>
+        <v>329</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>321</v>
+        <v>330</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>322</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" ht="89.25" customHeight="1" spans="1:5">
@@ -5024,16 +5130,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>323</v>
+        <v>332</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>324</v>
+        <v>333</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>325</v>
+        <v>334</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>326</v>
+        <v>335</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
@@ -5041,23 +5147,23 @@
         <v>146</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>327</v>
+        <v>336</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" ht="89.25" customHeight="1" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>328</v>
+        <v>337</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>329</v>
+        <v>338</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>330</v>
+        <v>339</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -5067,10 +5173,10 @@
         <v>121</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -5080,16 +5186,16 @@
         <v>123</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>332</v>
+        <v>341</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>333</v>
+        <v>342</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>334</v>
+        <v>343</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>335</v>
+        <v>344</v>
       </c>
     </row>
     <row r="12" ht="178.9" customHeight="1" spans="1:5">
@@ -5097,16 +5203,16 @@
         <v>125</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>336</v>
+        <v>345</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>337</v>
+        <v>346</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>338</v>
+        <v>347</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>339</v>
+        <v>348</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:5">
@@ -5114,10 +5220,10 @@
         <v>134</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>340</v>
+        <v>349</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>341</v>
+        <v>350</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -5127,16 +5233,16 @@
         <v>136</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>342</v>
+        <v>351</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>343</v>
+        <v>352</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>344</v>
+        <v>353</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>345</v>
+        <v>354</v>
       </c>
     </row>
     <row r="15" ht="134.5" customHeight="1" spans="1:5">
@@ -5173,13 +5279,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>346</v>
+        <v>355</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>347</v>
+        <v>356</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>348</v>
+        <v>357</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>55</v>
@@ -5193,15 +5299,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>349</v>
+        <v>358</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>350</v>
+        <v>359</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>0</v>
@@ -5210,12 +5316,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>351</v>
+        <v>360</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>304</v>
+        <v>313</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
@@ -5223,7 +5329,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>305</v>
+        <v>314</v>
       </c>
     </row>
   </sheetData>

--- a/Configuration/Config_AR.xlsx
+++ b/Configuration/Config_AR.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="361">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="462" uniqueCount="365">
   <si>
     <t>Name</t>
   </si>
@@ -659,6 +659,18 @@
   </si>
   <si>
     <t>reception@senico.sn, direction@senico.sn</t>
+  </si>
+  <si>
+    <t>MailBox</t>
+  </si>
+  <si>
+    <t>Boîte de réception</t>
+  </si>
+  <si>
+    <t>MailBoxRPA</t>
+  </si>
+  <si>
+    <t>SENICO</t>
   </si>
   <si>
     <t>Type_document</t>
@@ -1358,7 +1370,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="39">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1380,12 +1392,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF828D93"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1859,7 +1865,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="14" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1883,16 +1889,16 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="10" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="10" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="19" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
@@ -1901,87 +1907,87 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="26" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="26" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="85">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -2049,7 +2055,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2086,17 +2091,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2109,9 +2114,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="6" applyFill="1" applyAlignment="1">
@@ -2165,6 +2168,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -2538,211 +2542,211 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="50.5428571428571" style="34" customWidth="1"/>
-    <col min="2" max="2" width="49.8190476190476" style="35" customWidth="1"/>
-    <col min="3" max="3" width="28.7238095238095" style="35" customWidth="1"/>
-    <col min="4" max="4" width="28.4571428571429" style="35" customWidth="1"/>
-    <col min="5" max="5" width="130.266666666667" style="61" customWidth="1"/>
+    <col min="1" max="1" width="50.5428571428571" style="33" customWidth="1"/>
+    <col min="2" max="2" width="49.8190476190476" style="34" customWidth="1"/>
+    <col min="3" max="3" width="28.7238095238095" style="34" customWidth="1"/>
+    <col min="4" max="4" width="28.4571428571429" style="34" customWidth="1"/>
+    <col min="5" max="5" width="130.266666666667" style="58" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="1" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="37" t="s">
+      <c r="E1" s="36" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A2" s="62" t="s">
+      <c r="A2" s="59" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="64"/>
+      <c r="B2" s="60"/>
+      <c r="C2" s="60"/>
+      <c r="D2" s="60"/>
+      <c r="E2" s="61"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A3" s="43" t="s">
+      <c r="A3" s="42" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="44" t="s">
+      <c r="B3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="66" t="s">
+      <c r="C3" s="62"/>
+      <c r="D3" s="62"/>
+      <c r="E3" s="63" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A4" s="43" t="s">
+      <c r="A4" s="42" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="65" t="s">
+      <c r="B4" s="62" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="65"/>
-      <c r="D4" s="65"/>
-      <c r="E4" s="66" t="s">
+      <c r="C4" s="62"/>
+      <c r="D4" s="62"/>
+      <c r="E4" s="63" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="67" t="s">
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="64" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>15</v>
       </c>
-      <c r="B6" s="42" t="s">
+      <c r="B6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="67" t="s">
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="64" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>18</v>
       </c>
-      <c r="B7" s="42" t="s">
+      <c r="B7" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="68" t="s">
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="65" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="42"/>
-      <c r="D8" s="42"/>
-      <c r="E8" s="67" t="s">
+      <c r="C8" s="41"/>
+      <c r="D8" s="41"/>
+      <c r="E8" s="64" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="B9" s="44" t="s">
+      <c r="B9" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="C9" s="44"/>
-      <c r="D9" s="44"/>
-      <c r="E9" s="67" t="s">
+      <c r="C9" s="43"/>
+      <c r="D9" s="43"/>
+      <c r="E9" s="64" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="2:5">
-      <c r="B10" s="69"/>
-      <c r="C10" s="69"/>
-      <c r="D10" s="69"/>
-      <c r="E10" s="70"/>
+      <c r="B10" s="66"/>
+      <c r="C10" s="66"/>
+      <c r="D10" s="66"/>
+      <c r="E10" s="67"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="62" t="s">
+      <c r="A11" s="59" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="63"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="63"/>
-      <c r="E11" s="64"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="60"/>
+      <c r="D11" s="60"/>
+      <c r="E11" s="61"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="B12" s="46" t="s">
+      <c r="B12" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="42" t="s">
+      <c r="C12" s="41" t="s">
         <v>29</v>
       </c>
-      <c r="D12" s="42"/>
-      <c r="E12" s="67" t="s">
+      <c r="D12" s="41"/>
+      <c r="E12" s="64" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B13" s="46" t="s">
+      <c r="B13" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="42" t="s">
+      <c r="C13" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D13" s="42"/>
-      <c r="E13" s="67" t="s">
+      <c r="D13" s="41"/>
+      <c r="E13" s="64" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>34</v>
       </c>
-      <c r="B14" s="71" t="s">
+      <c r="B14" s="68" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="72"/>
-      <c r="D14" s="72"/>
-      <c r="E14" s="67" t="s">
+      <c r="C14" s="69"/>
+      <c r="D14" s="69"/>
+      <c r="E14" s="64" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="41" t="s">
         <v>32</v>
       </c>
-      <c r="D15" s="42"/>
-      <c r="E15" s="45"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
       <c r="A16" s="10" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="42" t="b">
+      <c r="B16" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="C16" s="42"/>
-      <c r="D16" s="42"/>
-      <c r="E16" s="67" t="s">
+      <c r="C16" s="41"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="64" t="s">
         <v>39</v>
       </c>
     </row>
@@ -2750,12 +2754,12 @@
       <c r="A17" s="10" t="s">
         <v>40</v>
       </c>
-      <c r="B17" s="42" t="s">
+      <c r="B17" s="41" t="s">
         <v>41</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="67" t="s">
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="64" t="s">
         <v>42</v>
       </c>
     </row>
@@ -2763,172 +2767,172 @@
       <c r="A18" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="42" t="s">
+      <c r="B18" s="41" t="s">
         <v>44</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="67"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="64"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:5">
       <c r="A19" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="B19" s="42" t="s">
+      <c r="B19" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="C19" s="42"/>
-      <c r="D19" s="42"/>
-      <c r="E19" s="67"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="64"/>
     </row>
     <row r="20" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
       <c r="A20" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>48</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="67"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="64"/>
     </row>
     <row r="21" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A21" s="73"/>
-      <c r="B21" s="53"/>
-      <c r="C21" s="53"/>
-      <c r="D21" s="53"/>
-      <c r="E21" s="74"/>
+      <c r="A21" s="70"/>
+      <c r="B21" s="52"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="71"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A22" s="62" t="s">
+      <c r="A22" s="59" t="s">
         <v>49</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="63"/>
-      <c r="E22" s="64"/>
+      <c r="B22" s="60"/>
+      <c r="C22" s="60"/>
+      <c r="D22" s="60"/>
+      <c r="E22" s="61"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A23" s="43"/>
-      <c r="B23" s="55"/>
-      <c r="C23" s="55"/>
-      <c r="D23" s="42"/>
-      <c r="E23" s="67"/>
+      <c r="A23" s="42"/>
+      <c r="B23" s="72"/>
+      <c r="C23" s="72"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="64"/>
     </row>
     <row r="24" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A24" s="73"/>
-      <c r="B24" s="53"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="74"/>
+      <c r="A24" s="70"/>
+      <c r="B24" s="52"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="71"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="B25" s="42" t="b">
+      <c r="B25" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C25" s="42" t="b">
+      <c r="C25" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="67" t="s">
+      <c r="D25" s="41"/>
+      <c r="E25" s="64" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="B26" s="75" t="str">
+      <c r="B26" s="73" t="str">
         <f>IF(B9="English",LanguageSettings!$B2,IF(B9="Spanish",LanguageSettings!$D2,LanguageSettings!$C2))</f>
         <v>L’exécution du travail a rencontré une exception système, veuillez consulter le fichier journal et le rapport d’expédition</v>
       </c>
-      <c r="C26" s="75"/>
-      <c r="D26" s="75"/>
-      <c r="E26" s="66" t="s">
+      <c r="C26" s="73"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="63" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A27" s="76"/>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="70"/>
+      <c r="A27" s="74"/>
+      <c r="B27" s="66"/>
+      <c r="C27" s="66"/>
+      <c r="D27" s="66"/>
+      <c r="E27" s="67"/>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A28" s="62" t="s">
+      <c r="A28" s="59" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="63"/>
-      <c r="E28" s="64"/>
+      <c r="B28" s="60"/>
+      <c r="C28" s="60"/>
+      <c r="D28" s="60"/>
+      <c r="E28" s="61"/>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:5">
       <c r="A29" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B29" s="42" t="s">
+      <c r="B29" s="41" t="s">
         <v>56</v>
       </c>
-      <c r="C29" s="42"/>
-      <c r="D29" s="42"/>
-      <c r="E29" s="67" t="s">
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="64" t="s">
         <v>57</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A30" s="43" t="s">
+      <c r="A30" s="42" t="s">
         <v>58</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C30" s="77"/>
-      <c r="D30" s="44" t="s">
+      <c r="C30" s="75"/>
+      <c r="D30" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E30" s="67" t="s">
+      <c r="E30" s="64" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>61</v>
       </c>
-      <c r="B31" s="65"/>
-      <c r="C31" s="77"/>
-      <c r="D31" s="72"/>
-      <c r="E31" s="67" t="s">
+      <c r="B31" s="62"/>
+      <c r="C31" s="75"/>
+      <c r="D31" s="69"/>
+      <c r="E31" s="64" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>63</v>
       </c>
-      <c r="B32" s="65"/>
-      <c r="C32" s="77"/>
-      <c r="D32" s="72"/>
-      <c r="E32" s="67" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="75"/>
+      <c r="D32" s="69"/>
+      <c r="E32" s="64" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="B33" s="78" t="s">
+      <c r="B33" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="C33" s="72"/>
-      <c r="D33" s="72"/>
-      <c r="E33" s="67" t="s">
+      <c r="C33" s="69"/>
+      <c r="D33" s="69"/>
+      <c r="E33" s="64" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2936,138 +2940,138 @@
       <c r="A34" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="B34" s="42" t="b">
+      <c r="B34" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="C34" s="42"/>
-      <c r="D34" s="42"/>
-      <c r="E34" s="67" t="s">
+      <c r="C34" s="41"/>
+      <c r="D34" s="41"/>
+      <c r="E34" s="64" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A35" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="B35" s="42"/>
-      <c r="C35" s="42"/>
-      <c r="D35" s="42"/>
-      <c r="E35" s="67" t="s">
+      <c r="B35" s="41"/>
+      <c r="C35" s="41"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="64" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A36" s="43" t="s">
+      <c r="A36" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="B36" s="42"/>
-      <c r="C36" s="42"/>
-      <c r="D36" s="42"/>
-      <c r="E36" s="66" t="s">
+      <c r="B36" s="41"/>
+      <c r="C36" s="41"/>
+      <c r="D36" s="41"/>
+      <c r="E36" s="63" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="B37" s="42" t="s">
+      <c r="B37" s="41" t="s">
         <v>74</v>
       </c>
-      <c r="C37" s="42" t="s">
+      <c r="C37" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="D37" s="42" t="s">
+      <c r="D37" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="E37" s="66" t="s">
+      <c r="E37" s="63" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="B38" s="75">
+      <c r="B38" s="73">
         <v>25</v>
       </c>
-      <c r="C38" s="75"/>
-      <c r="D38" s="75"/>
-      <c r="E38" s="66" t="s">
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="63" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="B39" s="75"/>
-      <c r="C39" s="75"/>
-      <c r="D39" s="75"/>
-      <c r="E39" s="66"/>
+      <c r="B39" s="73"/>
+      <c r="C39" s="73"/>
+      <c r="D39" s="73"/>
+      <c r="E39" s="63"/>
     </row>
     <row r="40" ht="13.9" customHeight="1" spans="1:4">
-      <c r="A40" s="59"/>
-      <c r="D40" s="69"/>
+      <c r="A40" s="56"/>
+      <c r="D40" s="66"/>
     </row>
     <row r="41" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A41" s="43" t="s">
+      <c r="A41" s="42" t="s">
         <v>80</v>
       </c>
-      <c r="B41" s="79" t="s">
+      <c r="B41" s="77" t="s">
         <v>81</v>
       </c>
-      <c r="C41" s="65"/>
-      <c r="D41" s="65"/>
-      <c r="E41" s="67"/>
+      <c r="C41" s="62"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="64"/>
     </row>
     <row r="42" ht="13.9" customHeight="1" spans="1:5">
-      <c r="A42" s="43" t="s">
+      <c r="A42" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="B42" s="44" t="s">
+      <c r="B42" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="65"/>
-      <c r="D42" s="65"/>
-      <c r="E42" s="67" t="s">
+      <c r="C42" s="62"/>
+      <c r="D42" s="62"/>
+      <c r="E42" s="64" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="43" ht="13.9" customHeight="1" spans="1:4">
-      <c r="A43" s="59"/>
-      <c r="D43" s="69"/>
+      <c r="A43" s="56"/>
+      <c r="D43" s="66"/>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A44" s="43" t="s">
+      <c r="A44" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="B44" s="42" t="b">
+      <c r="B44" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C44" s="42" t="b">
+      <c r="C44" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="D44" s="42"/>
-      <c r="E44" s="66"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="63"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:5">
       <c r="A45" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="B45" s="44" t="str">
+      <c r="B45" s="43" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B3,IF(B9="Spanish",LanguageSettings!$D3,LanguageSettings!$C3)),"%ProcessName%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - Status Report</v>
       </c>
-      <c r="C45" s="44" t="str">
+      <c r="C45" s="43" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B3,IF(B9="Spanish",LanguageSettings!$D3,LanguageSettings!$C3)),"%ProcessName%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - Status Report</v>
       </c>
-      <c r="D45" s="44" t="str">
+      <c r="D45" s="43" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B3,IF(B9="Spanish",LanguageSettings!$D3,LanguageSettings!$C3)),"%ProcessName%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - Status Report</v>
       </c>
-      <c r="E45" s="66" t="s">
+      <c r="E45" s="63" t="s">
         <v>87</v>
       </c>
     </row>
@@ -3075,14 +3079,14 @@
       <c r="A46" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="B46" s="44" t="str">
+      <c r="B46" s="43" t="str">
         <f>IF(B9="English",LanguageSettings!$B4,IF(B9="Spanish",LanguageSettings!$D4,LanguageSettings!$C4))</f>
         <v>&lt;p&gt;Vous trouverez le rapport de dispatch joint à ce mail. 
 %SRSummary%&lt;/p&gt;</v>
       </c>
-      <c r="C46" s="44"/>
-      <c r="D46" s="44"/>
-      <c r="E46" s="66" t="s">
+      <c r="C46" s="43"/>
+      <c r="D46" s="43"/>
+      <c r="E46" s="63" t="s">
         <v>89</v>
       </c>
     </row>
@@ -3090,13 +3094,13 @@
       <c r="A47" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B47" s="44" t="str">
+      <c r="B47" s="43" t="str">
         <f>IF(B9="English",LanguageSettings!$B5,IF(B9="Spanish",LanguageSettings!$D5,LanguageSettings!$C5))</f>
         <v>&lt;p&gt;Le processus s’est arrêté après avoir atteint le nombre maximum d’erreurs inattendues autorisées. Vous trouverez le rapport de dispatch joint à ce mail.&lt;/p&gt;</v>
       </c>
-      <c r="C47" s="44"/>
-      <c r="D47" s="44"/>
-      <c r="E47" s="66" t="s">
+      <c r="C47" s="43"/>
+      <c r="D47" s="43"/>
+      <c r="E47" s="63" t="s">
         <v>91</v>
       </c>
     </row>
@@ -3104,13 +3108,13 @@
       <c r="A48" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="B48" s="44" t="str">
+      <c r="B48" s="43" t="str">
         <f>IF(B9="English",LanguageSettings!$B6,IF(B9="Spanish",LanguageSettings!$D6,LanguageSettings!$C6))</f>
         <v>&lt;p&gt;Résumé : &lt;br&gt;Au total, {0} Transaction(s) ont été traitées. {1} Transaction(s) ont réussi et {2} Transaction(s) n’ont pas réussi. &lt;br&gt;&lt;br&gt;Anomalies : {3}&lt;/p&gt;</v>
       </c>
-      <c r="C48" s="77"/>
-      <c r="D48" s="72"/>
-      <c r="E48" s="66" t="s">
+      <c r="C48" s="75"/>
+      <c r="D48" s="69"/>
+      <c r="E48" s="63" t="s">
         <v>93</v>
       </c>
     </row>
@@ -3118,30 +3122,30 @@
       <c r="A49" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="B49" s="44" t="str">
+      <c r="B49" s="43" t="str">
         <f>IF(B9="English",LanguageSettings!$B7,IF(B9="Spanish",LanguageSettings!$D7,LanguageSettings!$C7))</f>
         <v>&lt;p&gt;Résumé : &lt;br&gt;Aucune donnée de transaction n’a été trouvée. Veuillez vérifier le processus pour plus de détails.&lt;/p&gt;</v>
       </c>
-      <c r="C49" s="44"/>
-      <c r="D49" s="44"/>
-      <c r="E49" s="66" t="s">
+      <c r="C49" s="43"/>
+      <c r="D49" s="43"/>
+      <c r="E49" s="63" t="s">
         <v>95</v>
       </c>
     </row>
     <row r="50" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A50" s="43" t="s">
+      <c r="A50" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="B50" s="44" t="s">
+      <c r="B50" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C50" s="58" t="s">
+      <c r="C50" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D50" s="44" t="s">
+      <c r="D50" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E50" s="67" t="s">
+      <c r="E50" s="64" t="s">
         <v>98</v>
       </c>
     </row>
@@ -3149,12 +3153,12 @@
       <c r="A51" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="B51" s="44" t="s">
+      <c r="B51" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C51" s="44"/>
-      <c r="D51" s="44"/>
-      <c r="E51" s="66" t="s">
+      <c r="C51" s="43"/>
+      <c r="D51" s="43"/>
+      <c r="E51" s="63" t="s">
         <v>101</v>
       </c>
     </row>
@@ -3162,10 +3166,10 @@
       <c r="A52" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="B52" s="44"/>
-      <c r="C52" s="44"/>
-      <c r="D52" s="44"/>
-      <c r="E52" s="66" t="s">
+      <c r="B52" s="43"/>
+      <c r="C52" s="43"/>
+      <c r="D52" s="43"/>
+      <c r="E52" s="63" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3173,32 +3177,32 @@
       <c r="A53" s="10" t="s">
         <v>104</v>
       </c>
-      <c r="B53" s="44">
+      <c r="B53" s="43">
         <v>3</v>
       </c>
-      <c r="C53" s="44"/>
-      <c r="D53" s="44"/>
-      <c r="E53" s="66" t="s">
+      <c r="C53" s="43"/>
+      <c r="D53" s="43"/>
+      <c r="E53" s="63" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="54" ht="14.25" customHeight="1" spans="1:5">
       <c r="A54" s="10"/>
-      <c r="B54" s="44"/>
-      <c r="C54" s="44"/>
-      <c r="D54" s="44"/>
-      <c r="E54" s="66"/>
+      <c r="B54" s="43"/>
+      <c r="C54" s="43"/>
+      <c r="D54" s="43"/>
+      <c r="E54" s="63"/>
     </row>
     <row r="55" ht="14.25" customHeight="1" spans="1:5">
       <c r="A55" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="B55" s="44" t="s">
+      <c r="B55" s="43" t="s">
         <v>107</v>
       </c>
-      <c r="C55" s="44"/>
-      <c r="D55" s="44"/>
-      <c r="E55" s="66" t="s">
+      <c r="C55" s="43"/>
+      <c r="D55" s="43"/>
+      <c r="E55" s="63" t="s">
         <v>108</v>
       </c>
     </row>
@@ -3206,12 +3210,12 @@
       <c r="A56" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="B56" s="44" t="s">
+      <c r="B56" s="43" t="s">
         <v>110</v>
       </c>
-      <c r="C56" s="44"/>
-      <c r="D56" s="44"/>
-      <c r="E56" s="66" t="s">
+      <c r="C56" s="43"/>
+      <c r="D56" s="43"/>
+      <c r="E56" s="63" t="s">
         <v>111</v>
       </c>
     </row>
@@ -3219,12 +3223,12 @@
       <c r="A57" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="B57" s="44" t="s">
+      <c r="B57" s="43" t="s">
         <v>113</v>
       </c>
-      <c r="C57" s="44"/>
-      <c r="D57" s="44"/>
-      <c r="E57" s="66" t="s">
+      <c r="C57" s="43"/>
+      <c r="D57" s="43"/>
+      <c r="E57" s="63" t="s">
         <v>114</v>
       </c>
     </row>
@@ -3232,12 +3236,12 @@
       <c r="A58" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="B58" s="42" t="b">
+      <c r="B58" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="C58" s="44"/>
-      <c r="D58" s="44"/>
-      <c r="E58" s="66" t="s">
+      <c r="C58" s="43"/>
+      <c r="D58" s="43"/>
+      <c r="E58" s="63" t="s">
         <v>116</v>
       </c>
     </row>
@@ -3245,52 +3249,52 @@
       <c r="A59" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="42" t="s">
+      <c r="B59" s="41" t="s">
         <v>118</v>
       </c>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="66" t="s">
+      <c r="C59" s="43"/>
+      <c r="D59" s="43"/>
+      <c r="E59" s="63" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="60" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A60" s="76"/>
-      <c r="B60" s="80"/>
-      <c r="C60" s="80"/>
-      <c r="D60" s="80"/>
-      <c r="E60" s="81"/>
+      <c r="A60" s="74"/>
+      <c r="B60" s="78"/>
+      <c r="C60" s="78"/>
+      <c r="D60" s="78"/>
+      <c r="E60" s="79"/>
     </row>
     <row r="61" ht="14.25" customHeight="1" spans="1:5">
       <c r="A61" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="B61" s="42" t="b">
+      <c r="B61" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C61" s="42" t="b">
+      <c r="C61" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="D61" s="42"/>
-      <c r="E61" s="66"/>
+      <c r="D61" s="41"/>
+      <c r="E61" s="63"/>
     </row>
     <row r="62" ht="14.25" customHeight="1" spans="1:5">
       <c r="A62" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="B62" s="44" t="str">
+      <c r="B62" s="43" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B10,IF(B9="Spanish",LanguageSettings!$D10,LanguageSettings!$C10)),"%ProcessName%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - System Exception</v>
       </c>
-      <c r="C62" s="44" t="str">
+      <c r="C62" s="43" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B10,IF(B9="Spanish",LanguageSettings!$D10,LanguageSettings!$C10)),"%ProcessName%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - System Exception</v>
       </c>
-      <c r="D62" s="44" t="str">
+      <c r="D62" s="43" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B10,IF(B9="Spanish",LanguageSettings!$D10,LanguageSettings!$C10)),"%ProcessName%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - System Exception</v>
       </c>
-      <c r="E62" s="67" t="s">
+      <c r="E62" s="64" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3298,45 +3302,45 @@
       <c r="A63" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="B63" s="44" t="str">
+      <c r="B63" s="43" t="str">
         <f>IF(B9="English",LanguageSettings!$B11,IF(B9="Spanish",LanguageSettings!$D11,LanguageSettings!$C11))</f>
         <v>&lt;p&gt;Le %Process% a été interrompu en raison d’une erreur inattendue lors de l’étape d’initialisation. Veuillez informer votre personne de contact RPA.&lt;/p&gt; </v>
       </c>
-      <c r="C63" s="44"/>
-      <c r="D63" s="44"/>
-      <c r="E63" s="67" t="s">
+      <c r="C63" s="43"/>
+      <c r="D63" s="43"/>
+      <c r="E63" s="64" t="s">
         <v>124</v>
       </c>
     </row>
     <row r="64" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A64" s="43" t="s">
+      <c r="A64" s="42" t="s">
         <v>125</v>
       </c>
-      <c r="B64" s="44" t="str">
+      <c r="B64" s="43" t="str">
         <f>IF(B9="English",LanguageSettings!$B12,IF(B9="Spanish",LanguageSettings!$D12,LanguageSettings!$C12))</f>
         <v>&lt;p&gt;La transaction avec l’ID %ID% , avec le collaborateur
  %COLLABORATEUR% , a été interrompue, en raison d’une erreur inattendue. Une capture d’écran et un fichier journal sont joints à ce courrier. Le processus se poursuivra avec la prochaine transaction. Vous recevrez un rapport d’état lorsque toutes les transactions seront traitées. &lt;p&gt;Message - Détails du processus:&lt;br /&gt;%ErrorMessage%&lt;/p&gt; &lt;p&gt;Message - Source de l’activité:&lt;br /&gt;%ErrorSource%&lt;/p&gt; &lt;/p&gt;</v>
       </c>
-      <c r="C64" s="44"/>
-      <c r="D64" s="44"/>
-      <c r="E64" s="67" t="s">
+      <c r="C64" s="43"/>
+      <c r="D64" s="43"/>
+      <c r="E64" s="64" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="65" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A65" s="43" t="s">
+      <c r="A65" s="42" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="44" t="s">
+      <c r="B65" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C65" s="58" t="s">
+      <c r="C65" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D65" s="44" t="s">
+      <c r="D65" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E65" s="67" t="s">
+      <c r="E65" s="64" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3344,12 +3348,12 @@
       <c r="A66" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="B66" s="44" t="s">
+      <c r="B66" s="43" t="s">
         <v>100</v>
       </c>
-      <c r="C66" s="82"/>
-      <c r="D66" s="82"/>
-      <c r="E66" s="67" t="s">
+      <c r="C66" s="80"/>
+      <c r="D66" s="80"/>
+      <c r="E66" s="64" t="s">
         <v>130</v>
       </c>
     </row>
@@ -3357,92 +3361,92 @@
       <c r="A67" s="10" t="s">
         <v>131</v>
       </c>
-      <c r="B67" s="82"/>
-      <c r="C67" s="82"/>
-      <c r="D67" s="82"/>
-      <c r="E67" s="67" t="s">
+      <c r="B67" s="80"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="80"/>
+      <c r="E67" s="64" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="68" ht="14.25" customHeight="1" spans="1:4">
-      <c r="A68" s="76"/>
-      <c r="B68" s="69"/>
-      <c r="C68" s="69"/>
-      <c r="D68" s="69"/>
+      <c r="A68" s="74"/>
+      <c r="B68" s="66"/>
+      <c r="C68" s="66"/>
+      <c r="D68" s="66"/>
     </row>
     <row r="69" ht="14.25" customHeight="1" spans="1:5">
       <c r="A69" s="10" t="s">
         <v>133</v>
       </c>
-      <c r="B69" s="42" t="b">
+      <c r="B69" s="41" t="b">
         <v>1</v>
       </c>
-      <c r="C69" s="42" t="b">
+      <c r="C69" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="D69" s="42"/>
-      <c r="E69" s="67"/>
+      <c r="D69" s="41"/>
+      <c r="E69" s="64"/>
     </row>
     <row r="70" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A70" s="43" t="s">
+      <c r="A70" s="42" t="s">
         <v>134</v>
       </c>
-      <c r="B70" s="44" t="str">
+      <c r="B70" s="43" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B13,IF(B9="Spanish",LanguageSettings!$D13,LanguageSettings!$C13)),"%ProcessName%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - Casier judiciaire non lisible par le robot pour le collaborateur %COLLABORATEUR% , Matricule : %MATRICULE% - Business Rule Exception</v>
       </c>
-      <c r="C70" s="44" t="str">
+      <c r="C70" s="43" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B13,IF(B9="Spanish",LanguageSettings!$D13,LanguageSettings!$C13)),"%ProcessName%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - Casier judiciaire non lisible par le robot pour le collaborateur %COLLABORATEUR% , Matricule : %MATRICULE% - Business Rule Exception</v>
       </c>
-      <c r="D70" s="44" t="str">
+      <c r="D70" s="43" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B13,IF(B9="Spanish",LanguageSettings!$D13,LanguageSettings!$C13)),"%ProcessName%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - Casier judiciaire non lisible par le robot pour le collaborateur %COLLABORATEUR% , Matricule : %MATRICULE% - Business Rule Exception</v>
       </c>
-      <c r="E70" s="67" t="s">
+      <c r="E70" s="64" t="s">
         <v>135</v>
       </c>
     </row>
     <row r="71" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A71" s="43" t="s">
+      <c r="A71" s="42" t="s">
         <v>136</v>
       </c>
-      <c r="B71" s="65" t="str">
+      <c r="B71" s="62" t="str">
         <f>IF(B9="English",LanguageSettings!$B14,IF(B9="Spanish",LanguageSettings!$D14,LanguageSettings!$C14))</f>
         <v>&lt;p&gt;La transaction avec l’ID %ID% , avec le collaborateur
  %COLLABORATEUR% ,  a été interrompue, en raison d’une erreur définie. Le processus se poursuivra avec la prochaine transaction. Vous recevrez un rapport d’état lorsque toutes les transactions seront traitées. &lt;p&gt;Cause de l’erreur:&lt;br /&gt;%ErrorMessage%&lt;/p&gt;&lt;/p&gt;</v>
       </c>
-      <c r="C71" s="65"/>
-      <c r="D71" s="65"/>
-      <c r="E71" s="67"/>
+      <c r="C71" s="62"/>
+      <c r="D71" s="62"/>
+      <c r="E71" s="64"/>
     </row>
     <row r="72" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A72" s="43" t="s">
+      <c r="A72" s="42" t="s">
         <v>137</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="58" t="s">
+      <c r="C72" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D72" s="44" t="s">
+      <c r="D72" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E72" s="67" t="s">
+      <c r="E72" s="64" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="73" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A73" s="43" t="s">
+      <c r="A73" s="42" t="s">
         <v>139</v>
       </c>
       <c r="B73" t="s">
         <v>140</v>
       </c>
-      <c r="C73" s="42"/>
-      <c r="D73" s="42"/>
-      <c r="E73" s="67" t="s">
+      <c r="C73" s="41"/>
+      <c r="D73" s="41"/>
+      <c r="E73" s="64" t="s">
         <v>141</v>
       </c>
     </row>
@@ -3450,96 +3454,96 @@
       <c r="A74" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="B74" s="42"/>
-      <c r="C74" s="42"/>
-      <c r="D74" s="42"/>
-      <c r="E74" s="67" t="s">
+      <c r="B74" s="41"/>
+      <c r="C74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="64" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="75" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A75" s="83"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
-      <c r="E75" s="84"/>
+      <c r="A75" s="81"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
+      <c r="E75" s="82"/>
     </row>
     <row r="76" ht="14.25" customHeight="1" spans="1:5">
       <c r="A76" s="10" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="42" t="b">
+      <c r="B76" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="C76" s="42" t="b">
+      <c r="C76" s="41" t="b">
         <v>0</v>
       </c>
-      <c r="D76" s="42"/>
-      <c r="E76" s="67" t="s">
+      <c r="D76" s="41"/>
+      <c r="E76" s="64" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="77" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A77" s="43" t="s">
+      <c r="A77" s="42" t="s">
         <v>146</v>
       </c>
-      <c r="B77" s="44" t="str">
+      <c r="B77" s="43" t="str">
         <f>SUBSTITUTE(IF(B9="English",LanguageSettings!$B8,IF(B9="Spanish",LanguageSettings!$D8,LanguageSettings!$C8)),"%Process%",B3)</f>
         <v>189_HR_Workday_Casiers_Judiciaires - Process Started</v>
       </c>
-      <c r="C77" s="44" t="str">
+      <c r="C77" s="43" t="str">
         <f>"DEV - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B8,IF(B9="Spanish",LanguageSettings!$D8,LanguageSettings!$C8)),"%Process%",B3)</f>
         <v>DEV - 189_HR_Workday_Casiers_Judiciaires - Process Started</v>
       </c>
-      <c r="D77" s="44" t="str">
+      <c r="D77" s="43" t="str">
         <f>"INT - "&amp;SUBSTITUTE(IF(B9="English",LanguageSettings!$B8,IF(B9="Spanish",LanguageSettings!$D8,LanguageSettings!$C8)),"%Process%",B3)</f>
         <v>INT - 189_HR_Workday_Casiers_Judiciaires - Process Started</v>
       </c>
-      <c r="E77" s="67" t="s">
+      <c r="E77" s="64" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="78" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A78" s="43" t="s">
+      <c r="A78" s="42" t="s">
         <v>148</v>
       </c>
-      <c r="B78" s="44" t="str">
+      <c r="B78" s="43" t="str">
         <f>IF(B9="English",LanguageSettings!$B9,IF(B9="Spanish",LanguageSettings!$D9,LanguageSettings!$C9))</f>
         <v>&lt;p&gt;Le processus d’exécution a démarré avec succès et va maintenant commencer à traiter les éléments de travail dans la file d’attente (s’il y en a).&lt;/p&gt;</v>
       </c>
-      <c r="C78" s="65"/>
-      <c r="D78" s="65"/>
-      <c r="E78" s="67" t="s">
+      <c r="C78" s="62"/>
+      <c r="D78" s="62"/>
+      <c r="E78" s="64" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="79" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A79" s="43" t="s">
+      <c r="A79" s="42" t="s">
         <v>150</v>
       </c>
-      <c r="B79" s="44" t="s">
+      <c r="B79" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="C79" s="58" t="s">
+      <c r="C79" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D79" s="44" t="s">
+      <c r="D79" s="43" t="s">
         <v>59</v>
       </c>
-      <c r="E79" s="67" t="s">
+      <c r="E79" s="64" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="80" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A80" s="43" t="s">
+      <c r="A80" s="42" t="s">
         <v>152</v>
       </c>
       <c r="B80" t="s">
         <v>100</v>
       </c>
-      <c r="C80" s="42"/>
-      <c r="D80" s="42"/>
-      <c r="E80" s="67" t="s">
+      <c r="C80" s="41"/>
+      <c r="D80" s="41"/>
+      <c r="E80" s="64" t="s">
         <v>153</v>
       </c>
     </row>
@@ -3547,18 +3551,18 @@
       <c r="A81" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="B81" s="44"/>
-      <c r="C81" s="42"/>
-      <c r="D81" s="42"/>
-      <c r="E81" s="67" t="s">
+      <c r="B81" s="43"/>
+      <c r="C81" s="41"/>
+      <c r="D81" s="41"/>
+      <c r="E81" s="64" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="82" s="34" customFormat="1" ht="14.25" customHeight="1" spans="2:5">
-      <c r="B82" s="35"/>
-      <c r="C82" s="35"/>
-      <c r="D82" s="35"/>
-      <c r="E82" s="61"/>
+    <row r="82" s="33" customFormat="1" ht="14.25" customHeight="1" spans="2:5">
+      <c r="B82" s="34"/>
+      <c r="C82" s="34"/>
+      <c r="D82" s="34"/>
+      <c r="E82" s="58"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3599,34 +3603,34 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:N87"/>
+  <dimension ref="A1:N89"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B39" sqref="B39"/>
+      <selection pane="bottomLeft" activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.4571428571429" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="41.1809523809524" style="34" customWidth="1"/>
-    <col min="2" max="2" width="112.266666666667" style="35" customWidth="1"/>
-    <col min="3" max="3" width="30.3619047619048" style="35" customWidth="1"/>
-    <col min="4" max="4" width="36.7238095238095" style="35" customWidth="1"/>
-    <col min="5" max="5" width="214.266666666667" style="36" customWidth="1"/>
+    <col min="1" max="1" width="41.1809523809524" style="33" customWidth="1"/>
+    <col min="2" max="2" width="112.266666666667" style="34" customWidth="1"/>
+    <col min="3" max="3" width="30.3619047619048" style="34" customWidth="1"/>
+    <col min="4" max="4" width="36.7238095238095" style="34" customWidth="1"/>
+    <col min="5" max="5" width="214.266666666667" style="35" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="31" customFormat="1" ht="15.65" customHeight="1" spans="1:5">
-      <c r="A1" s="37" t="s">
+      <c r="A1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="38" t="s">
+      <c r="B1" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="38" t="s">
+      <c r="C1" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="38" t="s">
+      <c r="D1" s="37" t="s">
         <v>3</v>
       </c>
       <c r="E1" s="13" t="s">
@@ -3634,863 +3638,889 @@
       </c>
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A2" s="39" t="s">
+      <c r="A2" s="38" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="40" t="s">
+      <c r="B2" s="39" t="s">
         <v>157</v>
       </c>
-      <c r="C2" s="40"/>
-      <c r="D2" s="40"/>
-      <c r="E2" s="41" t="s">
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F2" s="42"/>
-      <c r="G2" s="42"/>
-      <c r="H2" s="42"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="42"/>
-      <c r="K2" s="42"/>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
+      <c r="F2" s="41"/>
+      <c r="G2" s="41"/>
+      <c r="H2" s="41"/>
+      <c r="I2" s="41"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:14">
       <c r="A3" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C3" s="42"/>
-      <c r="D3" s="42"/>
-      <c r="E3" s="41" t="s">
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F3" s="42"/>
-      <c r="G3" s="42"/>
-      <c r="H3" s="42"/>
-      <c r="I3" s="42"/>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="41"/>
+      <c r="I3" s="41"/>
+      <c r="J3" s="41"/>
+      <c r="K3" s="41"/>
+      <c r="L3" s="41"/>
+      <c r="M3" s="41"/>
+      <c r="N3" s="41"/>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:14">
       <c r="A4" s="10" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="42" t="s">
+      <c r="B4" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="41" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="40" t="s">
         <v>158</v>
       </c>
-      <c r="F4" s="42"/>
-      <c r="G4" s="42"/>
-      <c r="H4" s="42"/>
-      <c r="I4" s="42"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="42"/>
-      <c r="L4" s="42"/>
-      <c r="M4" s="42"/>
-      <c r="N4" s="42"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="41"/>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41"/>
+      <c r="J4" s="41"/>
+      <c r="K4" s="41"/>
+      <c r="L4" s="41"/>
+      <c r="M4" s="41"/>
+      <c r="N4" s="41"/>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A5" s="43" t="s">
+      <c r="A5" s="42" t="s">
         <v>162</v>
       </c>
-      <c r="B5" s="42" t="s">
+      <c r="B5" s="41" t="s">
         <v>163</v>
       </c>
-      <c r="C5" s="42"/>
-      <c r="D5" s="42"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
-      <c r="I5" s="42"/>
-      <c r="J5" s="42"/>
-      <c r="K5" s="42"/>
-      <c r="L5" s="42"/>
-      <c r="M5" s="42"/>
-      <c r="N5" s="42"/>
+      <c r="C5" s="41"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="40"/>
+      <c r="F5" s="41"/>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41"/>
+      <c r="I5" s="41"/>
+      <c r="J5" s="41"/>
+      <c r="K5" s="41"/>
+      <c r="L5" s="41"/>
+      <c r="M5" s="41"/>
+      <c r="N5" s="41"/>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A6" s="43" t="s">
+      <c r="A6" s="42" t="s">
         <v>164</v>
       </c>
-      <c r="B6" s="44" t="s">
+      <c r="B6" s="43" t="s">
         <v>165</v>
       </c>
-      <c r="C6" s="42"/>
-      <c r="D6" s="42"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="42"/>
-      <c r="M6" s="42"/>
-      <c r="N6" s="42"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="41"/>
+      <c r="K6" s="41"/>
+      <c r="L6" s="41"/>
+      <c r="M6" s="41"/>
+      <c r="N6" s="41"/>
     </row>
     <row r="7" ht="14.25" customHeight="1" spans="1:14">
-      <c r="A7" s="43" t="s">
+      <c r="A7" s="42" t="s">
         <v>166</v>
       </c>
       <c r="B7" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="42"/>
-      <c r="D7" s="42"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="42"/>
-      <c r="M7" s="42"/>
-      <c r="N7" s="42"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
+      <c r="M7" s="41"/>
+      <c r="N7" s="41"/>
     </row>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A8" s="43" t="s">
+      <c r="A8" s="42" t="s">
         <v>167</v>
       </c>
-      <c r="B8" s="42" t="s">
+      <c r="B8" s="41" t="s">
         <v>168</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="41" t="s">
         <v>169</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="41" t="s">
         <v>170</v>
       </c>
-      <c r="E8" s="45"/>
+      <c r="E8" s="44"/>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A9" s="43" t="s">
+      <c r="A9" s="42" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="42" t="s">
+      <c r="B9" s="41" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="42"/>
-      <c r="D9" s="42"/>
-      <c r="E9" s="45"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="44"/>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A10" s="43" t="s">
+      <c r="A10" s="42" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="42" t="s">
+      <c r="B10" s="41" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="41" t="s">
         <v>175</v>
       </c>
-      <c r="D10" s="42" t="s">
+      <c r="D10" s="41" t="s">
         <v>176</v>
       </c>
-      <c r="E10" s="45"/>
+      <c r="E10" s="44"/>
     </row>
     <row r="11" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A11" s="43" t="s">
+      <c r="A11" s="42" t="s">
         <v>177</v>
       </c>
-      <c r="B11" s="42" t="s">
+      <c r="B11" s="41" t="s">
         <v>178</v>
       </c>
-      <c r="C11" s="42"/>
-      <c r="D11" s="42"/>
-      <c r="E11" s="45"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="44"/>
     </row>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A12" s="43" t="s">
+      <c r="A12" s="42" t="s">
         <v>179</v>
       </c>
-      <c r="B12" s="42" t="s">
+      <c r="B12" s="41" t="s">
         <v>180</v>
       </c>
-      <c r="C12" s="42"/>
-      <c r="D12" s="42"/>
-      <c r="E12" s="45"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="44"/>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A13" s="43" t="s">
+      <c r="A13" s="42" t="s">
         <v>181</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="41" t="s">
         <v>182</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="45"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="44"/>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A14" s="43" t="s">
+      <c r="A14" s="42" t="s">
         <v>183</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="41" t="s">
         <v>184</v>
       </c>
-      <c r="C14" s="42" t="s">
+      <c r="C14" s="41" t="s">
         <v>185</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="41" t="s">
         <v>186</v>
       </c>
-      <c r="E14" s="45" t="s">
+      <c r="E14" s="44" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A15" s="43" t="s">
+      <c r="A15" s="42" t="s">
         <v>188</v>
       </c>
-      <c r="B15" s="42" t="s">
+      <c r="B15" s="41" t="s">
         <v>189</v>
       </c>
-      <c r="C15" s="42"/>
-      <c r="D15" s="42"/>
-      <c r="E15" s="45"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="44"/>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A17" s="43" t="s">
+      <c r="A17" s="42" t="s">
         <v>190</v>
       </c>
-      <c r="B17" s="46" t="s">
+      <c r="B17" s="45" t="s">
         <v>191</v>
       </c>
-      <c r="C17" s="42"/>
-      <c r="D17" s="42"/>
-      <c r="E17" s="45"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="44"/>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A18" s="43" t="s">
+      <c r="A18" s="42" t="s">
         <v>192</v>
       </c>
-      <c r="B18" s="46">
+      <c r="B18" s="45">
         <v>20</v>
       </c>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="45"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="44"/>
     </row>
     <row r="19" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A19" s="43" t="s">
+      <c r="A19" s="42" t="s">
         <v>193</v>
       </c>
-      <c r="B19" s="46" t="s">
+      <c r="B19" s="45" t="s">
         <v>194</v>
       </c>
-      <c r="C19" s="42" t="s">
+      <c r="C19" s="41" t="s">
         <v>194</v>
       </c>
-      <c r="D19" s="42"/>
-      <c r="E19" s="45"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="44"/>
     </row>
     <row r="20" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A20" s="43" t="s">
+      <c r="A20" s="42" t="s">
         <v>195</v>
       </c>
-      <c r="B20" s="46" t="s">
+      <c r="B20" s="45" t="s">
         <v>196</v>
       </c>
-      <c r="C20" s="42" t="s">
+      <c r="C20" s="41" t="s">
         <v>196</v>
       </c>
-      <c r="D20" s="42"/>
-      <c r="E20" s="45"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="44"/>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A21" s="43" t="s">
+      <c r="A21" s="42" t="s">
         <v>197</v>
       </c>
-      <c r="B21" s="46" t="s">
+      <c r="B21" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="C21" s="42" t="s">
+      <c r="C21" s="41" t="s">
         <v>198</v>
       </c>
-      <c r="D21" s="42"/>
-      <c r="E21" s="45"/>
+      <c r="D21" s="41"/>
+      <c r="E21" s="44"/>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A22" s="43" t="s">
+      <c r="A22" s="42" t="s">
         <v>199</v>
       </c>
-      <c r="B22" s="46" t="s">
+      <c r="B22" s="45" t="s">
         <v>200</v>
       </c>
-      <c r="C22" s="42" t="s">
+      <c r="C22" s="41" t="s">
         <v>200</v>
       </c>
-      <c r="D22" s="42"/>
-      <c r="E22" s="45"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="44"/>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A23" s="43" t="s">
+      <c r="A23" s="42" t="s">
         <v>201</v>
       </c>
-      <c r="B23" s="47" t="s">
+      <c r="B23" s="46" t="s">
         <v>202</v>
       </c>
-      <c r="C23" s="48" t="s">
+      <c r="C23" s="47" t="s">
         <v>202</v>
       </c>
-      <c r="D23" s="42"/>
-      <c r="E23" s="45"/>
+      <c r="D23" s="41"/>
+      <c r="E23" s="44"/>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A24" s="43" t="s">
+      <c r="A24" s="42" t="s">
         <v>203</v>
       </c>
-      <c r="B24" s="47" t="s">
+      <c r="B24" s="46" t="s">
         <v>204</v>
       </c>
-      <c r="C24" s="48" t="s">
+      <c r="C24" s="47" t="s">
         <v>204</v>
       </c>
-      <c r="D24" s="42"/>
-      <c r="E24" s="45"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="44"/>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A25" s="43" t="s">
+      <c r="A25" s="42" t="s">
         <v>205</v>
       </c>
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="46" t="s">
         <v>206</v>
       </c>
-      <c r="C25" s="48" t="s">
+      <c r="C25" s="47" t="s">
         <v>206</v>
       </c>
-      <c r="D25" s="42"/>
-      <c r="E25" s="45"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="44"/>
     </row>
     <row r="26" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A26" s="43" t="s">
+      <c r="A26" s="42" t="s">
         <v>207</v>
       </c>
-      <c r="B26" s="47" t="s">
+      <c r="B26" s="46" t="s">
         <v>208</v>
       </c>
-      <c r="C26" s="48" t="s">
+      <c r="C26" s="47" t="s">
         <v>208</v>
       </c>
-      <c r="D26" s="42"/>
-      <c r="E26" s="45"/>
+      <c r="D26" s="41"/>
+      <c r="E26" s="44"/>
     </row>
     <row r="27" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A27" s="43" t="s">
+      <c r="A27" s="42" t="s">
         <v>209</v>
       </c>
-      <c r="B27" s="49">
+      <c r="B27" s="46" t="s">
+        <v>210</v>
+      </c>
+      <c r="C27" s="47" t="s">
+        <v>210</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="44"/>
+    </row>
+    <row r="28" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A28" s="42" t="s">
+        <v>211</v>
+      </c>
+      <c r="B28" s="46" t="s">
+        <v>212</v>
+      </c>
+      <c r="C28" s="47" t="s">
+        <v>212</v>
+      </c>
+      <c r="D28" s="41"/>
+      <c r="E28" s="44"/>
+    </row>
+    <row r="29" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A29" s="42" t="s">
+        <v>213</v>
+      </c>
+      <c r="B29" s="48">
         <v>0.5</v>
       </c>
-      <c r="C27" s="50">
+      <c r="C29" s="49">
         <v>0.5</v>
       </c>
-      <c r="D27" s="42"/>
-      <c r="E27" s="45"/>
-    </row>
-    <row r="28" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A28" s="51"/>
-      <c r="B28" s="52"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="54"/>
-    </row>
-    <row r="29" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A29" s="43" t="s">
-        <v>210</v>
-      </c>
-      <c r="B29" s="47" t="s">
-        <v>211</v>
-      </c>
-      <c r="C29" s="48" t="s">
-        <v>211</v>
-      </c>
-      <c r="D29" s="42"/>
-      <c r="E29" s="45"/>
-    </row>
-    <row r="30" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A30" s="43" t="s">
-        <v>212</v>
-      </c>
-      <c r="B30" s="55" t="s">
-        <v>213</v>
-      </c>
-      <c r="C30" s="48" t="s">
-        <v>213</v>
-      </c>
-      <c r="D30" s="42"/>
-      <c r="E30" s="45"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="44"/>
+    </row>
+    <row r="30" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A30" s="50"/>
+      <c r="B30" s="51"/>
+      <c r="C30" s="51"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="53"/>
     </row>
     <row r="31" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A31" s="43" t="s">
+      <c r="A31" s="42" t="s">
         <v>214</v>
       </c>
-      <c r="B31" s="55" t="s">
+      <c r="B31" s="46" t="s">
         <v>215</v>
       </c>
-      <c r="C31" s="48" t="s">
+      <c r="C31" s="47" t="s">
         <v>215</v>
       </c>
-      <c r="D31" s="42"/>
-      <c r="E31" s="45"/>
+      <c r="D31" s="41"/>
+      <c r="E31" s="44"/>
     </row>
     <row r="32" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="42" t="s">
         <v>216</v>
       </c>
-      <c r="B32" s="55" t="s">
+      <c r="B32" s="46" t="s">
         <v>217</v>
       </c>
-      <c r="C32" s="48" t="s">
+      <c r="C32" s="47" t="s">
         <v>217</v>
       </c>
-      <c r="D32" s="42"/>
-      <c r="E32" s="45"/>
+      <c r="D32" s="41"/>
+      <c r="E32" s="44"/>
     </row>
     <row r="33" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A33" s="43" t="s">
+      <c r="A33" s="42" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="55" t="s">
+      <c r="B33" s="46" t="s">
         <v>219</v>
       </c>
-      <c r="C33" s="48" t="s">
+      <c r="C33" s="47" t="s">
         <v>219</v>
       </c>
-      <c r="D33" s="42"/>
-      <c r="E33" s="45"/>
-    </row>
-    <row r="34" s="33" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A34" s="51"/>
-      <c r="B34" s="56"/>
-      <c r="C34" s="32"/>
-      <c r="D34" s="53"/>
-      <c r="E34" s="54"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="44"/>
+    </row>
+    <row r="34" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A34" s="42" t="s">
+        <v>220</v>
+      </c>
+      <c r="B34" s="46" t="s">
+        <v>221</v>
+      </c>
+      <c r="C34" s="47" t="s">
+        <v>221</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="44"/>
     </row>
     <row r="35" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A35" s="43" t="s">
-        <v>220</v>
-      </c>
-      <c r="B35" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="C35" s="57" t="s">
-        <v>221</v>
-      </c>
-      <c r="D35" s="42"/>
-      <c r="E35" s="45"/>
-    </row>
-    <row r="36" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A36" s="43" t="s">
+      <c r="A35" s="42" t="s">
         <v>222</v>
       </c>
-      <c r="B36" s="48" t="s">
+      <c r="B35" s="46" t="s">
         <v>223</v>
       </c>
-      <c r="C36" s="48" t="s">
+      <c r="C35" s="47" t="s">
         <v>223</v>
       </c>
-      <c r="D36" s="42"/>
-      <c r="E36" s="45"/>
+      <c r="D35" s="41"/>
+      <c r="E35" s="44"/>
+    </row>
+    <row r="36" s="32" customFormat="1" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A36" s="50"/>
+      <c r="B36" s="32"/>
+      <c r="C36" s="32"/>
+      <c r="D36" s="52"/>
+      <c r="E36" s="53"/>
     </row>
     <row r="37" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A37" s="43" t="s">
+      <c r="A37" s="42" t="s">
         <v>224</v>
       </c>
-      <c r="B37" s="57" t="s">
+      <c r="B37" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="C37" s="57" t="s">
+      <c r="C37" s="54" t="s">
         <v>225</v>
       </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="45"/>
+      <c r="D37" s="41"/>
+      <c r="E37" s="44"/>
     </row>
     <row r="38" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A38" s="43" t="s">
+      <c r="A38" s="42" t="s">
         <v>226</v>
       </c>
-      <c r="B38" s="48" t="s">
+      <c r="B38" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="C38" s="48" t="s">
+      <c r="C38" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="45"/>
+      <c r="D38" s="41"/>
+      <c r="E38" s="44"/>
     </row>
     <row r="39" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A39" s="43" t="s">
+      <c r="A39" s="42" t="s">
         <v>228</v>
       </c>
-      <c r="B39" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="C39" s="48" t="s">
-        <v>227</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="45"/>
+      <c r="B39" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="C39" s="54" t="s">
+        <v>229</v>
+      </c>
+      <c r="D39" s="41"/>
+      <c r="E39" s="44"/>
+    </row>
+    <row r="40" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A40" s="42" t="s">
+        <v>230</v>
+      </c>
+      <c r="B40" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="C40" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D40" s="41"/>
+      <c r="E40" s="44"/>
     </row>
     <row r="41" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A41" s="43" t="s">
-        <v>229</v>
-      </c>
-      <c r="B41" s="42" t="s">
-        <v>230</v>
-      </c>
-      <c r="C41" s="42"/>
-      <c r="D41" s="42"/>
-      <c r="E41" s="45"/>
-    </row>
-    <row r="42" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A42" s="43" t="s">
+      <c r="A41" s="42" t="s">
+        <v>232</v>
+      </c>
+      <c r="B41" s="47" t="s">
         <v>231</v>
       </c>
-      <c r="B42" s="42" t="s">
-        <v>232</v>
-      </c>
-      <c r="C42" s="42"/>
-      <c r="D42" s="42"/>
-      <c r="E42" s="45"/>
+      <c r="C41" s="47" t="s">
+        <v>231</v>
+      </c>
+      <c r="D41" s="41"/>
+      <c r="E41" s="44"/>
     </row>
     <row r="43" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A43" s="43" t="s">
+      <c r="A43" s="42" t="s">
         <v>233</v>
       </c>
-      <c r="B43" s="42" t="s">
+      <c r="B43" s="41" t="s">
         <v>234</v>
       </c>
-      <c r="C43" s="42"/>
-      <c r="D43" s="42"/>
-      <c r="E43" s="45"/>
+      <c r="C43" s="41"/>
+      <c r="D43" s="41"/>
+      <c r="E43" s="44"/>
     </row>
     <row r="44" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A44" s="43"/>
-      <c r="B44" s="42"/>
-      <c r="C44" s="42"/>
-      <c r="D44" s="42"/>
-      <c r="E44" s="45"/>
+      <c r="A44" s="42" t="s">
+        <v>235</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>236</v>
+      </c>
+      <c r="C44" s="41"/>
+      <c r="D44" s="41"/>
+      <c r="E44" s="44"/>
     </row>
     <row r="45" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A45" s="43" t="s">
-        <v>235</v>
-      </c>
-      <c r="B45" s="42" t="s">
+      <c r="A45" s="42" t="s">
+        <v>237</v>
+      </c>
+      <c r="B45" s="41" t="s">
+        <v>238</v>
+      </c>
+      <c r="C45" s="41"/>
+      <c r="D45" s="41"/>
+      <c r="E45" s="44"/>
+    </row>
+    <row r="46" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A46" s="42"/>
+      <c r="B46" s="41"/>
+      <c r="C46" s="41"/>
+      <c r="D46" s="41"/>
+      <c r="E46" s="44"/>
+    </row>
+    <row r="47" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A47" s="42" t="s">
+        <v>239</v>
+      </c>
+      <c r="B47" s="41" t="s">
         <v>160</v>
       </c>
-      <c r="C45" s="42" t="s">
+      <c r="C47" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="D45" s="42" t="s">
+      <c r="D47" s="41" t="s">
         <v>157</v>
       </c>
-      <c r="E45" s="45"/>
-    </row>
-    <row r="46" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A46" s="43" t="s">
-        <v>236</v>
-      </c>
-      <c r="B46" s="42"/>
-      <c r="C46" s="58" t="s">
+      <c r="E47" s="44"/>
+    </row>
+    <row r="48" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A48" s="42" t="s">
+        <v>240</v>
+      </c>
+      <c r="B48" s="41"/>
+      <c r="C48" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="D46" s="58" t="s">
+      <c r="D48" s="55" t="s">
         <v>97</v>
       </c>
-      <c r="E46" s="45"/>
-    </row>
-    <row r="47" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A47" s="43" t="s">
-        <v>237</v>
-      </c>
-      <c r="B47" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="C47" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="D47" s="42" t="s">
-        <v>238</v>
-      </c>
-      <c r="E47" s="45"/>
-    </row>
-    <row r="48" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A48" s="43" t="s">
-        <v>239</v>
-      </c>
-      <c r="B48" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="C48" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="D48" s="42" t="s">
-        <v>240</v>
-      </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="44"/>
     </row>
     <row r="49" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A49" s="43" t="s">
+      <c r="A49" s="42" t="s">
         <v>241</v>
       </c>
-      <c r="B49" s="42" t="s">
+      <c r="B49" s="41" t="s">
         <v>242</v>
       </c>
-      <c r="C49" s="42" t="s">
+      <c r="C49" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="D49" s="41" t="s">
+        <v>242</v>
+      </c>
+      <c r="E49" s="44"/>
+    </row>
+    <row r="50" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A50" s="42" t="s">
         <v>243</v>
       </c>
-      <c r="D49" s="42" t="s">
+      <c r="B50" s="41" t="s">
         <v>244</v>
       </c>
-      <c r="E49" s="45"/>
-    </row>
-    <row r="50" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A50" s="43"/>
-      <c r="B50" s="42"/>
-      <c r="C50" s="42"/>
-      <c r="D50" s="42"/>
-      <c r="E50" s="45"/>
+      <c r="C50" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="D50" s="41" t="s">
+        <v>244</v>
+      </c>
+      <c r="E50" s="44"/>
     </row>
     <row r="51" ht="14.25" customHeight="1" spans="1:5">
-      <c r="A51" s="43"/>
-      <c r="B51" s="42"/>
-      <c r="C51" s="42"/>
-      <c r="D51" s="42"/>
-      <c r="E51" s="45"/>
-    </row>
-    <row r="52" customHeight="1" spans="1:4">
-      <c r="A52" s="59"/>
-      <c r="B52" s="60"/>
-      <c r="C52" s="60"/>
-      <c r="D52" s="60"/>
-    </row>
-    <row r="53" customHeight="1" spans="1:4">
-      <c r="A53" s="59"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="60"/>
-      <c r="D53" s="60"/>
+      <c r="A51" s="42" t="s">
+        <v>245</v>
+      </c>
+      <c r="B51" s="41" t="s">
+        <v>246</v>
+      </c>
+      <c r="C51" s="41" t="s">
+        <v>247</v>
+      </c>
+      <c r="D51" s="41" t="s">
+        <v>248</v>
+      </c>
+      <c r="E51" s="44"/>
+    </row>
+    <row r="52" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A52" s="42"/>
+      <c r="B52" s="41"/>
+      <c r="C52" s="41"/>
+      <c r="D52" s="41"/>
+      <c r="E52" s="44"/>
+    </row>
+    <row r="53" ht="14.25" customHeight="1" spans="1:5">
+      <c r="A53" s="42"/>
+      <c r="B53" s="41"/>
+      <c r="C53" s="41"/>
+      <c r="D53" s="41"/>
+      <c r="E53" s="44"/>
     </row>
     <row r="54" customHeight="1" spans="1:4">
-      <c r="A54" s="59"/>
-      <c r="B54" s="60"/>
-      <c r="C54" s="60"/>
-      <c r="D54" s="60"/>
+      <c r="A54" s="56"/>
+      <c r="B54" s="57"/>
+      <c r="C54" s="57"/>
+      <c r="D54" s="57"/>
     </row>
     <row r="55" customHeight="1" spans="1:4">
-      <c r="A55" s="59"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="60"/>
-      <c r="D55" s="60"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="57"/>
+      <c r="C55" s="57"/>
+      <c r="D55" s="57"/>
     </row>
     <row r="56" customHeight="1" spans="1:4">
-      <c r="A56" s="59"/>
-      <c r="B56" s="60"/>
-      <c r="C56" s="60"/>
-      <c r="D56" s="60"/>
+      <c r="A56" s="56"/>
+      <c r="B56" s="57"/>
+      <c r="C56" s="57"/>
+      <c r="D56" s="57"/>
     </row>
     <row r="57" customHeight="1" spans="1:4">
-      <c r="A57" s="59"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="60"/>
-      <c r="D57" s="60"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="57"/>
+      <c r="C57" s="57"/>
+      <c r="D57" s="57"/>
     </row>
     <row r="58" customHeight="1" spans="1:4">
-      <c r="A58" s="59"/>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
+      <c r="A58" s="56"/>
+      <c r="B58" s="57"/>
+      <c r="C58" s="57"/>
+      <c r="D58" s="57"/>
     </row>
     <row r="59" customHeight="1" spans="1:4">
-      <c r="A59" s="59"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="60"/>
+      <c r="A59" s="56"/>
+      <c r="B59" s="57"/>
+      <c r="C59" s="57"/>
+      <c r="D59" s="57"/>
     </row>
     <row r="60" customHeight="1" spans="1:4">
-      <c r="A60" s="59"/>
-      <c r="B60" s="60"/>
-      <c r="C60" s="60"/>
-      <c r="D60" s="60"/>
+      <c r="A60" s="56"/>
+      <c r="B60" s="57"/>
+      <c r="C60" s="57"/>
+      <c r="D60" s="57"/>
     </row>
     <row r="61" customHeight="1" spans="1:4">
-      <c r="A61" s="59"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="60"/>
-      <c r="D61" s="60"/>
+      <c r="A61" s="56"/>
+      <c r="B61" s="57"/>
+      <c r="C61" s="57"/>
+      <c r="D61" s="57"/>
     </row>
     <row r="62" customHeight="1" spans="1:4">
-      <c r="A62" s="59"/>
-      <c r="B62" s="60"/>
-      <c r="C62" s="60"/>
-      <c r="D62" s="60"/>
+      <c r="A62" s="56"/>
+      <c r="B62" s="57"/>
+      <c r="C62" s="57"/>
+      <c r="D62" s="57"/>
     </row>
     <row r="63" customHeight="1" spans="1:4">
-      <c r="A63" s="59"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="60"/>
-      <c r="D63" s="60"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="57"/>
+      <c r="C63" s="57"/>
+      <c r="D63" s="57"/>
     </row>
     <row r="64" customHeight="1" spans="1:4">
-      <c r="A64" s="59"/>
-      <c r="B64" s="60"/>
-      <c r="C64" s="60"/>
-      <c r="D64" s="60"/>
+      <c r="A64" s="56"/>
+      <c r="B64" s="57"/>
+      <c r="C64" s="57"/>
+      <c r="D64" s="57"/>
     </row>
     <row r="65" customHeight="1" spans="1:4">
-      <c r="A65" s="59"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="60"/>
-      <c r="D65" s="60"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="57"/>
+      <c r="C65" s="57"/>
+      <c r="D65" s="57"/>
     </row>
     <row r="66" customHeight="1" spans="1:4">
-      <c r="A66" s="59"/>
-      <c r="B66" s="60"/>
-      <c r="C66" s="60"/>
-      <c r="D66" s="60"/>
+      <c r="A66" s="56"/>
+      <c r="B66" s="57"/>
+      <c r="C66" s="57"/>
+      <c r="D66" s="57"/>
     </row>
     <row r="67" customHeight="1" spans="1:4">
-      <c r="A67" s="59"/>
-      <c r="B67" s="60"/>
-      <c r="C67" s="60"/>
-      <c r="D67" s="60"/>
+      <c r="A67" s="56"/>
+      <c r="B67" s="57"/>
+      <c r="C67" s="57"/>
+      <c r="D67" s="57"/>
     </row>
     <row r="68" customHeight="1" spans="1:4">
-      <c r="A68" s="59"/>
-      <c r="B68" s="60"/>
-      <c r="C68" s="60"/>
-      <c r="D68" s="60"/>
+      <c r="A68" s="56"/>
+      <c r="B68" s="57"/>
+      <c r="C68" s="57"/>
+      <c r="D68" s="57"/>
     </row>
     <row r="69" customHeight="1" spans="1:4">
-      <c r="A69" s="59"/>
-      <c r="B69" s="60"/>
-      <c r="C69" s="60"/>
-      <c r="D69" s="60"/>
+      <c r="A69" s="56"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="57"/>
+      <c r="D69" s="57"/>
     </row>
     <row r="70" customHeight="1" spans="1:4">
-      <c r="A70" s="59"/>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-      <c r="D70" s="60"/>
+      <c r="A70" s="56"/>
+      <c r="B70" s="57"/>
+      <c r="C70" s="57"/>
+      <c r="D70" s="57"/>
     </row>
     <row r="71" customHeight="1" spans="1:4">
-      <c r="A71" s="59"/>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
+      <c r="A71" s="56"/>
+      <c r="B71" s="57"/>
+      <c r="C71" s="57"/>
+      <c r="D71" s="57"/>
     </row>
     <row r="72" customHeight="1" spans="1:4">
-      <c r="A72" s="59"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
+      <c r="A72" s="56"/>
+      <c r="B72" s="57"/>
+      <c r="C72" s="57"/>
+      <c r="D72" s="57"/>
     </row>
     <row r="73" customHeight="1" spans="1:4">
-      <c r="A73" s="59"/>
-      <c r="B73" s="60"/>
-      <c r="C73" s="60"/>
-      <c r="D73" s="60"/>
+      <c r="A73" s="56"/>
+      <c r="B73" s="57"/>
+      <c r="C73" s="57"/>
+      <c r="D73" s="57"/>
     </row>
     <row r="74" customHeight="1" spans="1:4">
-      <c r="A74" s="59"/>
-      <c r="B74" s="60"/>
-      <c r="C74" s="60"/>
-      <c r="D74" s="60"/>
+      <c r="A74" s="56"/>
+      <c r="B74" s="57"/>
+      <c r="C74" s="57"/>
+      <c r="D74" s="57"/>
     </row>
     <row r="75" customHeight="1" spans="1:4">
-      <c r="A75" s="59"/>
-      <c r="B75" s="60"/>
-      <c r="C75" s="60"/>
-      <c r="D75" s="60"/>
+      <c r="A75" s="56"/>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
+      <c r="D75" s="57"/>
     </row>
     <row r="76" customHeight="1" spans="1:4">
-      <c r="A76" s="59"/>
-      <c r="B76" s="60"/>
-      <c r="C76" s="60"/>
-      <c r="D76" s="60"/>
+      <c r="A76" s="56"/>
+      <c r="B76" s="57"/>
+      <c r="C76" s="57"/>
+      <c r="D76" s="57"/>
     </row>
     <row r="77" customHeight="1" spans="1:4">
-      <c r="A77" s="59"/>
-      <c r="B77" s="60"/>
-      <c r="C77" s="60"/>
-      <c r="D77" s="60"/>
+      <c r="A77" s="56"/>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
+      <c r="D77" s="57"/>
     </row>
     <row r="78" customHeight="1" spans="1:4">
-      <c r="A78" s="59"/>
-      <c r="B78" s="60"/>
-      <c r="C78" s="60"/>
-      <c r="D78" s="60"/>
+      <c r="A78" s="56"/>
+      <c r="B78" s="57"/>
+      <c r="C78" s="57"/>
+      <c r="D78" s="57"/>
     </row>
     <row r="79" customHeight="1" spans="1:4">
-      <c r="A79" s="59"/>
-      <c r="B79" s="60"/>
-      <c r="C79" s="60"/>
-      <c r="D79" s="60"/>
+      <c r="A79" s="56"/>
+      <c r="B79" s="57"/>
+      <c r="C79" s="57"/>
+      <c r="D79" s="57"/>
     </row>
     <row r="80" customHeight="1" spans="1:4">
-      <c r="A80" s="59"/>
-      <c r="B80" s="60"/>
-      <c r="C80" s="60"/>
-      <c r="D80" s="60"/>
+      <c r="A80" s="56"/>
+      <c r="B80" s="57"/>
+      <c r="C80" s="57"/>
+      <c r="D80" s="57"/>
     </row>
     <row r="81" customHeight="1" spans="1:4">
-      <c r="A81" s="59"/>
-      <c r="B81" s="60"/>
-      <c r="C81" s="60"/>
-      <c r="D81" s="60"/>
+      <c r="A81" s="56"/>
+      <c r="B81" s="57"/>
+      <c r="C81" s="57"/>
+      <c r="D81" s="57"/>
     </row>
     <row r="82" customHeight="1" spans="1:4">
-      <c r="A82" s="59"/>
-      <c r="B82" s="60"/>
-      <c r="C82" s="60"/>
-      <c r="D82" s="60"/>
+      <c r="A82" s="56"/>
+      <c r="B82" s="57"/>
+      <c r="C82" s="57"/>
+      <c r="D82" s="57"/>
     </row>
     <row r="83" customHeight="1" spans="1:4">
-      <c r="A83" s="59"/>
-      <c r="B83" s="60"/>
-      <c r="C83" s="60"/>
-      <c r="D83" s="60"/>
+      <c r="A83" s="56"/>
+      <c r="B83" s="57"/>
+      <c r="C83" s="57"/>
+      <c r="D83" s="57"/>
     </row>
     <row r="84" customHeight="1" spans="1:4">
-      <c r="A84" s="59"/>
-      <c r="B84" s="60"/>
-      <c r="C84" s="60"/>
-      <c r="D84" s="60"/>
+      <c r="A84" s="56"/>
+      <c r="B84" s="57"/>
+      <c r="C84" s="57"/>
+      <c r="D84" s="57"/>
     </row>
     <row r="85" customHeight="1" spans="1:4">
-      <c r="A85" s="59"/>
-      <c r="B85" s="60"/>
-      <c r="C85" s="60"/>
-      <c r="D85" s="60"/>
+      <c r="A85" s="56"/>
+      <c r="B85" s="57"/>
+      <c r="C85" s="57"/>
+      <c r="D85" s="57"/>
     </row>
     <row r="86" customHeight="1" spans="1:4">
-      <c r="A86" s="59"/>
-      <c r="B86" s="60"/>
-      <c r="C86" s="60"/>
-      <c r="D86" s="60"/>
+      <c r="A86" s="56"/>
+      <c r="B86" s="57"/>
+      <c r="C86" s="57"/>
+      <c r="D86" s="57"/>
     </row>
     <row r="87" customHeight="1" spans="1:4">
-      <c r="A87" s="59"/>
-      <c r="B87" s="60"/>
-      <c r="C87" s="60"/>
-      <c r="D87" s="60"/>
+      <c r="A87" s="56"/>
+      <c r="B87" s="57"/>
+      <c r="C87" s="57"/>
+      <c r="D87" s="57"/>
+    </row>
+    <row r="88" customHeight="1" spans="1:4">
+      <c r="A88" s="56"/>
+      <c r="B88" s="57"/>
+      <c r="C88" s="57"/>
+      <c r="D88" s="57"/>
+    </row>
+    <row r="89" customHeight="1" spans="1:4">
+      <c r="A89" s="56"/>
+      <c r="B89" s="57"/>
+      <c r="C89" s="57"/>
+      <c r="D89" s="57"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C46" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
-    <hyperlink ref="D46" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
+    <hyperlink ref="C48" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
+    <hyperlink ref="D48" r:id="rId1" display="fkinedieng.ext@fdjunited.com"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -4540,7 +4570,7 @@
     </row>
     <row r="2" ht="14.25" customHeight="1" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21"/>
@@ -4549,7 +4579,7 @@
     </row>
     <row r="3" ht="14.25" customHeight="1" spans="1:5">
       <c r="A3" s="23" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="B3" s="24">
         <v>0</v>
@@ -4557,12 +4587,12 @@
       <c r="C3" s="24"/>
       <c r="D3" s="24"/>
       <c r="E3" s="25" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
     </row>
     <row r="4" ht="14.25" customHeight="1" spans="1:5">
       <c r="A4" s="15" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="B4" s="4">
         <v>200</v>
@@ -4570,12 +4600,12 @@
       <c r="C4" s="4"/>
       <c r="D4" s="4"/>
       <c r="E4" s="14" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
     </row>
     <row r="5" ht="14.25" customHeight="1" spans="1:5">
       <c r="A5" s="15" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="B5" s="4">
         <v>2</v>
@@ -4583,12 +4613,12 @@
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
       <c r="E5" s="14" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
     </row>
     <row r="6" ht="14.25" customHeight="1" spans="1:5">
       <c r="A6" s="16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="B6" s="17">
         <v>3</v>
@@ -4596,13 +4626,13 @@
       <c r="C6" s="17"/>
       <c r="D6" s="17"/>
       <c r="E6" s="18" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" ht="14.25" customHeight="1"/>
     <row r="8" ht="14.25" customHeight="1" spans="1:5">
       <c r="A8" s="23" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="B8" s="24">
         <v>5</v>
@@ -4610,12 +4640,12 @@
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="25" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
     </row>
     <row r="9" ht="14.25" customHeight="1" spans="1:5">
       <c r="A9" s="15" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="B9" s="4">
         <v>30</v>
@@ -4623,12 +4653,12 @@
       <c r="C9" s="4"/>
       <c r="D9" s="4"/>
       <c r="E9" s="14" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" ht="14.25" customHeight="1" spans="1:5">
       <c r="A10" s="16" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="B10" s="17">
         <v>120</v>
@@ -4636,13 +4666,13 @@
       <c r="C10" s="17"/>
       <c r="D10" s="17"/>
       <c r="E10" s="18" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" ht="14.25" customHeight="1"/>
     <row r="12" ht="14.25" customHeight="1" spans="1:5">
       <c r="A12" s="23" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="B12" s="24">
         <v>1</v>
@@ -4650,12 +4680,12 @@
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="25" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" ht="14.25" customHeight="1" spans="1:5">
       <c r="A13" s="15" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B13" s="4">
         <v>15</v>
@@ -4663,12 +4693,12 @@
       <c r="C13" s="4"/>
       <c r="D13" s="4"/>
       <c r="E13" s="14" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="14" ht="14.25" customHeight="1" spans="1:5">
       <c r="A14" s="16" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B14" s="17">
         <v>60</v>
@@ -4676,13 +4706,13 @@
       <c r="C14" s="17"/>
       <c r="D14" s="17"/>
       <c r="E14" s="18" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" ht="14.25" customHeight="1"/>
     <row r="16" ht="14.25" customHeight="1" spans="1:5">
       <c r="A16" s="23" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B16" s="24">
         <v>0.6</v>
@@ -4690,12 +4720,12 @@
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="25" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1" spans="1:5">
       <c r="A17" s="15" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B17" s="4">
         <v>0.8</v>
@@ -4703,12 +4733,12 @@
       <c r="C17" s="4"/>
       <c r="D17" s="4"/>
       <c r="E17" s="14" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
     </row>
     <row r="18" ht="14.25" customHeight="1" spans="1:5">
       <c r="A18" s="16" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B18" s="17">
         <v>0.9</v>
@@ -4716,92 +4746,92 @@
       <c r="C18" s="17"/>
       <c r="D18" s="17"/>
       <c r="E18" s="18" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" ht="14.25" customHeight="1"/>
     <row r="20" ht="14.25" customHeight="1" spans="1:5">
       <c r="A20" s="23" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="25" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" ht="14.25" customHeight="1" spans="1:5">
       <c r="A21" s="15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="C21" s="4"/>
       <c r="D21" s="4"/>
       <c r="E21" s="14" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" ht="14.25" customHeight="1" spans="1:5">
       <c r="A22" s="15" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C22" s="4"/>
       <c r="D22" s="4"/>
       <c r="E22" s="14" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="23" ht="14.25" customHeight="1" spans="1:5">
       <c r="A23" s="15" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="C23" s="4"/>
       <c r="D23" s="4"/>
       <c r="E23" s="14" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
     </row>
     <row r="24" ht="14.25" customHeight="1" spans="1:5">
       <c r="A24" s="16" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="B24" s="17" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="C24" s="17"/>
       <c r="D24" s="17"/>
       <c r="E24" s="18" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
     </row>
     <row r="25" ht="14.25" customHeight="1" spans="1:5">
       <c r="A25" s="16" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="B25" s="17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C25" s="17"/>
       <c r="D25" s="17"/>
       <c r="E25" s="18" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" ht="14.25" customHeight="1"/>
     <row r="27" ht="14.25" customHeight="1" spans="1:5">
       <c r="A27" s="23" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B27" s="24">
         <v>0</v>
@@ -4809,12 +4839,12 @@
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="25" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
     </row>
     <row r="28" ht="14.25" customHeight="1" spans="1:5">
       <c r="A28" s="15" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B28" s="4">
         <v>0</v>
@@ -4822,12 +4852,12 @@
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
       <c r="E28" s="14" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="29" ht="14.25" customHeight="1" spans="1:5">
       <c r="A29" s="16" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="B29" s="17">
         <v>0</v>
@@ -4835,30 +4865,30 @@
       <c r="C29" s="17"/>
       <c r="D29" s="17"/>
       <c r="E29" s="18" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
     </row>
     <row r="30" ht="14.25" customHeight="1"/>
     <row r="31" ht="14.25" customHeight="1" spans="1:5">
       <c r="A31" s="23" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B31" s="26" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="C31" s="26" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
     </row>
     <row r="32" ht="14.15" customHeight="1" spans="1:5">
       <c r="A32" s="16" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="B32" s="17">
         <v>7</v>
@@ -4866,13 +4896,13 @@
       <c r="C32" s="17"/>
       <c r="D32" s="17"/>
       <c r="E32" s="18" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
     </row>
     <row r="33" ht="14.15" customHeight="1"/>
     <row r="34" ht="14.15" customHeight="1" spans="1:5">
       <c r="A34" s="23" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="B34" s="24">
         <v>3</v>
@@ -4880,12 +4910,12 @@
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="25" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
     </row>
     <row r="35" ht="14.15" customHeight="1" spans="1:5">
       <c r="A35" s="16" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="B35" s="17">
         <v>5</v>
@@ -4893,13 +4923,13 @@
       <c r="C35" s="17"/>
       <c r="D35" s="17"/>
       <c r="E35" s="18" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
     </row>
     <row r="36" ht="14.25" customHeight="1"/>
     <row r="37" ht="14.25" customHeight="1" spans="1:5">
       <c r="A37" s="27" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="B37" s="28"/>
       <c r="C37" s="28"/>
@@ -4908,7 +4938,7 @@
     </row>
     <row r="38" s="19" customFormat="1" ht="14.25" customHeight="1" spans="1:1">
       <c r="A38" s="30" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
     </row>
   </sheetData>
@@ -4955,18 +4985,18 @@
         <v>37</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:5">
       <c r="A2" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C2" s="4" t="s">
         <v>32</v>
@@ -4976,10 +5006,10 @@
     </row>
     <row r="3" customHeight="1" spans="1:5">
       <c r="A3" s="15" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>32</v>
@@ -5029,19 +5059,19 @@
   <sheetData>
     <row r="1" ht="15.75" customHeight="1" spans="1:5">
       <c r="A1" s="6" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="C1" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
     <row r="2" ht="45" spans="1:5">
@@ -5049,16 +5079,16 @@
         <v>52</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="E2" s="9" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
     </row>
     <row r="3" ht="15" spans="1:5">
@@ -5066,10 +5096,10 @@
         <v>86</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
@@ -5079,16 +5109,16 @@
         <v>88</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="D4" s="11" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" ht="89.25" customHeight="1" spans="1:5">
@@ -5096,16 +5126,16 @@
         <v>90</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="D5" s="11" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" ht="89.25" customHeight="1" spans="1:5">
@@ -5113,16 +5143,16 @@
         <v>92</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="C6" s="11" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
     </row>
     <row r="7" ht="89.25" customHeight="1" spans="1:5">
@@ -5130,16 +5160,16 @@
         <v>94</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
     </row>
     <row r="8" ht="15" spans="1:5">
@@ -5147,23 +5177,23 @@
         <v>146</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9"/>
     </row>
     <row r="9" ht="89.25" customHeight="1" spans="1:5">
       <c r="A9" s="8" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="D9" s="11"/>
       <c r="E9" s="11"/>
@@ -5173,10 +5203,10 @@
         <v>121</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9"/>
@@ -5186,16 +5216,16 @@
         <v>123</v>
       </c>
       <c r="B11" s="11" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="D11" s="11" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" ht="178.9" customHeight="1" spans="1:5">
@@ -5203,16 +5233,16 @@
         <v>125</v>
       </c>
       <c r="B12" s="11" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
     </row>
     <row r="13" ht="45" spans="1:5">
@@ -5220,10 +5250,10 @@
         <v>134</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9"/>
@@ -5233,16 +5263,16 @@
         <v>136</v>
       </c>
       <c r="B14" s="11" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
     </row>
     <row r="15" ht="134.5" customHeight="1" spans="1:5">
@@ -5279,13 +5309,13 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="D1" s="2" t="s">
         <v>55</v>
@@ -5299,15 +5329,15 @@
         <v>1</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" s="4" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B3" s="4" t="b">
         <v>0</v>
@@ -5316,12 +5346,12 @@
         <v>10</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" s="4" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>56</v>
@@ -5329,7 +5359,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5" s="3" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
     </row>
   </sheetData>
